--- a/databases/VESTUNB_16.xlsx
+++ b/databases/VESTUNB_16.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="452">
   <si>
     <t>UNIVERSIDADE DE BRASÍLIA (UnB)</t>
   </si>
@@ -656,778 +656,709 @@
     <t>Data de criação:31/05/2016</t>
   </si>
   <si>
-    <t>Campus UnB — Ceilândia / DF</t>
-  </si>
-  <si>
-    <t>Enfermagem</t>
-  </si>
-  <si>
-    <t>5,63</t>
-  </si>
-  <si>
-    <t>15,00</t>
-  </si>
-  <si>
-    <t>8,86</t>
-  </si>
-  <si>
-    <t>22,60</t>
-  </si>
-  <si>
-    <t>10,14</t>
-  </si>
-  <si>
-    <t>4,46</t>
-  </si>
-  <si>
-    <t>Farmácia</t>
-  </si>
-  <si>
-    <t>6,20</t>
-  </si>
-  <si>
-    <t>3,64</t>
-  </si>
-  <si>
-    <t>Fisioterapia</t>
+    <t>Campus UnB — Darcy Ribeiro (Plano Piloto) / DF</t>
+  </si>
+  <si>
+    <t>8,17</t>
+  </si>
+  <si>
+    <t>6,63</t>
+  </si>
+  <si>
+    <t>Agronomia (Bacharelado)</t>
+  </si>
+  <si>
+    <t>5,25</t>
+  </si>
+  <si>
+    <t>1,92</t>
+  </si>
+  <si>
+    <t>5,13</t>
+  </si>
+  <si>
+    <t>3,25</t>
+  </si>
+  <si>
+    <t>9,38</t>
+  </si>
+  <si>
+    <t>2,59</t>
+  </si>
+  <si>
+    <t>22,50</t>
+  </si>
+  <si>
+    <t>7,50</t>
+  </si>
+  <si>
+    <t>25,75</t>
+  </si>
+  <si>
+    <t>23,56</t>
+  </si>
+  <si>
+    <t>10,60</t>
+  </si>
+  <si>
+    <t>Artes Cênicas (Bacharelado/Licenciatura) *</t>
+  </si>
+  <si>
+    <t>11,00</t>
+  </si>
+  <si>
+    <t>16,00</t>
+  </si>
+  <si>
+    <t>9,58</t>
+  </si>
+  <si>
+    <t>4,42</t>
+  </si>
+  <si>
+    <t>Artes Plásticas (Bacharelado/Licenciatura)*</t>
   </si>
   <si>
     <t>8,67</t>
   </si>
   <si>
-    <t>10,40</t>
+    <t>9,23</t>
+  </si>
+  <si>
+    <t>Bacharelado em Química</t>
+  </si>
+  <si>
+    <t>2,20</t>
+  </si>
+  <si>
+    <t>5,67</t>
+  </si>
+  <si>
+    <t>4,14</t>
+  </si>
+  <si>
+    <t>1,81</t>
+  </si>
+  <si>
+    <t>Biblioteconomia (Bacharelado)</t>
+  </si>
+  <si>
+    <t>7,75</t>
+  </si>
+  <si>
+    <t>3,83</t>
+  </si>
+  <si>
+    <t>1,73</t>
+  </si>
+  <si>
+    <t>Biotecnologia (Bacharelado)</t>
+  </si>
+  <si>
+    <t>7,39</t>
+  </si>
+  <si>
+    <t>Ciência da Computação (Bacharelado)</t>
+  </si>
+  <si>
+    <t>2,17</t>
+  </si>
+  <si>
+    <t>18,50</t>
+  </si>
+  <si>
+    <t>14,50</t>
+  </si>
+  <si>
+    <t>6,53</t>
+  </si>
+  <si>
+    <t>Ciência Política (Bacharelado)</t>
+  </si>
+  <si>
+    <t>2,13</t>
+  </si>
+  <si>
+    <t>4,57</t>
+  </si>
+  <si>
+    <t>10,80</t>
+  </si>
+  <si>
+    <t>8,32</t>
+  </si>
+  <si>
+    <t>3,66</t>
+  </si>
+  <si>
+    <t>Ciências Biológicas (Bacharelado)</t>
+  </si>
+  <si>
+    <t>13,00</t>
+  </si>
+  <si>
+    <t>12,00</t>
+  </si>
+  <si>
+    <t>10,00</t>
+  </si>
+  <si>
+    <t>28,00</t>
+  </si>
+  <si>
+    <t>18,11</t>
+  </si>
+  <si>
+    <t>8,15</t>
+  </si>
+  <si>
+    <t>1,82</t>
+  </si>
+  <si>
+    <t>3,70</t>
+  </si>
+  <si>
+    <t>7,86</t>
+  </si>
+  <si>
+    <t>5,65</t>
+  </si>
+  <si>
+    <t>Ciências Econômicas (Bacharelado)</t>
+  </si>
+  <si>
+    <t>7,33</t>
+  </si>
+  <si>
+    <t>5,80</t>
+  </si>
+  <si>
+    <t>16,40</t>
+  </si>
+  <si>
+    <t>12,77</t>
+  </si>
+  <si>
+    <t>5,62</t>
+  </si>
+  <si>
+    <t>Ciências Sociais - Antropologia / Sociologia Bacharelado / Licenciatura</t>
+  </si>
+  <si>
+    <t>4,60</t>
+  </si>
+  <si>
+    <t>1,69</t>
+  </si>
+  <si>
+    <t>9,11</t>
+  </si>
+  <si>
+    <t>5,85</t>
+  </si>
+  <si>
+    <t>2,60</t>
+  </si>
+  <si>
+    <t>Comunicação Social – Audiovisual / Publicidade e Propaganda (Bacharelados)</t>
+  </si>
+  <si>
+    <t>21,50</t>
+  </si>
+  <si>
+    <t>3,14</t>
+  </si>
+  <si>
+    <t>12,75</t>
+  </si>
+  <si>
+    <t>7,71</t>
+  </si>
+  <si>
+    <t>31,75</t>
+  </si>
+  <si>
+    <t>20,75</t>
+  </si>
+  <si>
+    <t>9,43</t>
+  </si>
+  <si>
+    <t>Design – Programação Visual / Projeto do Produto (Bacharelados)*</t>
+  </si>
+  <si>
+    <t>13,50</t>
+  </si>
+  <si>
+    <t>15,89</t>
+  </si>
+  <si>
+    <t>7,15</t>
+  </si>
+  <si>
+    <t>28,67</t>
+  </si>
+  <si>
+    <t>11,11</t>
+  </si>
+  <si>
+    <t>26,17</t>
+  </si>
+  <si>
+    <t>18,44</t>
+  </si>
+  <si>
+    <t>53,00</t>
+  </si>
+  <si>
+    <t>36,44</t>
+  </si>
+  <si>
+    <t>Educação Física (Bacharelado)</t>
+  </si>
+  <si>
+    <t>5,14</t>
+  </si>
+  <si>
+    <t>8,95</t>
+  </si>
+  <si>
+    <t>3,94</t>
+  </si>
+  <si>
+    <t>Educação Física (Licenciatura)</t>
+  </si>
+  <si>
+    <t>2,63</t>
+  </si>
+  <si>
+    <t>6,60</t>
+  </si>
+  <si>
+    <t>4,71</t>
+  </si>
+  <si>
+    <t>5,36</t>
+  </si>
+  <si>
+    <t>2,36</t>
+  </si>
+  <si>
+    <t>Enfermagem (Bacharelado)</t>
+  </si>
+  <si>
+    <t>13,75</t>
+  </si>
+  <si>
+    <t>26,75</t>
+  </si>
+  <si>
+    <t>12,44</t>
+  </si>
+  <si>
+    <t>5,60</t>
+  </si>
+  <si>
+    <t>Engenharia Ambiental (Bacharelado)</t>
+  </si>
+  <si>
+    <t>3,75</t>
+  </si>
+  <si>
+    <t>7,25</t>
+  </si>
+  <si>
+    <t>Engenharia Civil (Bacharelado)</t>
+  </si>
+  <si>
+    <t>7,83</t>
+  </si>
+  <si>
+    <t>17,25</t>
+  </si>
+  <si>
+    <t>11,50</t>
+  </si>
+  <si>
+    <t>32,25</t>
+  </si>
+  <si>
+    <t>21,56</t>
+  </si>
+  <si>
+    <t>9,70</t>
+  </si>
+  <si>
+    <t>Engenharia de Computação (Bacharelado)</t>
+  </si>
+  <si>
+    <t>6,75</t>
+  </si>
+  <si>
+    <t>3,67</t>
+  </si>
+  <si>
+    <t>9,56</t>
+  </si>
+  <si>
+    <t>4,30</t>
+  </si>
+  <si>
+    <t>Engenharia de Redes de Comunicação (Bacharelado)</t>
+  </si>
+  <si>
+    <t>Engenharia Elétrica (Bacharelado)</t>
+  </si>
+  <si>
+    <t>3,90</t>
+  </si>
+  <si>
+    <t>Engenharia Florestal (Bacharelado)</t>
+  </si>
+  <si>
+    <t>3,80</t>
+  </si>
+  <si>
+    <t>3,05</t>
+  </si>
+  <si>
+    <t>1,34</t>
+  </si>
+  <si>
+    <t>Engenharia Mecânica (Bacharelado)</t>
+  </si>
+  <si>
+    <t>13,25</t>
+  </si>
+  <si>
+    <t>11,78</t>
+  </si>
+  <si>
+    <t>5,30</t>
+  </si>
+  <si>
+    <t>Engenharia Mecatrônica – Controle e Automação (Bacharelado)</t>
+  </si>
+  <si>
+    <t>10,75</t>
+  </si>
+  <si>
+    <t>Engenharia Química (Bacharelado)</t>
+  </si>
+  <si>
+    <t>10,25</t>
+  </si>
+  <si>
+    <t>Estatística (Bacharelado)</t>
+  </si>
+  <si>
+    <t>3,06</t>
+  </si>
+  <si>
+    <t>1,38</t>
+  </si>
+  <si>
+    <t>4,94</t>
+  </si>
+  <si>
+    <t>2,23</t>
+  </si>
+  <si>
+    <t>Filosofia (Bacharelado/Licenciatura )</t>
+  </si>
+  <si>
+    <t>4,61</t>
+  </si>
+  <si>
+    <t>Física (Bacharelado/Licenciatura/Física Computacional)</t>
+  </si>
+  <si>
+    <t>6,94</t>
+  </si>
+  <si>
+    <t>3,08</t>
+  </si>
+  <si>
+    <t>Geofísica (Bacharelado)</t>
+  </si>
+  <si>
+    <t>0,97</t>
+  </si>
+  <si>
+    <t>Geografia (Bacharelado/Licenciatura)</t>
+  </si>
+  <si>
+    <t>0,83</t>
+  </si>
+  <si>
+    <t>4,81</t>
+  </si>
+  <si>
+    <t>2,14</t>
+  </si>
+  <si>
+    <t>Geologia (Bacharelado)</t>
+  </si>
+  <si>
+    <t>6,33</t>
+  </si>
+  <si>
+    <t>11,33</t>
+  </si>
+  <si>
+    <t>6,71</t>
+  </si>
+  <si>
+    <t>2,94</t>
+  </si>
+  <si>
+    <t>História (Bacharelado/Licenciatura)</t>
+  </si>
+  <si>
+    <t>9,75</t>
+  </si>
+  <si>
+    <t>18,00</t>
+  </si>
+  <si>
+    <t>10,72</t>
+  </si>
+  <si>
+    <t>4,83</t>
+  </si>
+  <si>
+    <t>Jornalismo (Bacharelado)</t>
+  </si>
+  <si>
+    <t>28,50</t>
+  </si>
+  <si>
+    <t>18,60</t>
+  </si>
+  <si>
+    <t>8,45</t>
+  </si>
+  <si>
+    <t>Letras – Tradução – Francês (Bacharelado)</t>
+  </si>
+  <si>
+    <t>0,94</t>
+  </si>
+  <si>
+    <t>Letras – Tradução – Inglês (Bacharelado)</t>
+  </si>
+  <si>
+    <t>3,41</t>
+  </si>
+  <si>
+    <t>Licenciatura em Letras – Português do Brasil como Segunda Língua (Licenciatura)</t>
+  </si>
+  <si>
+    <t>2,15</t>
+  </si>
+  <si>
+    <t>0,93</t>
+  </si>
+  <si>
+    <t>Língua Francesa e Respectiva Literatura (Bacharelado/Licenciatura)</t>
+  </si>
+  <si>
+    <t>1,83</t>
+  </si>
+  <si>
+    <t>Língua Inglesa e Respectiva Literatura (Bacharelado/Licenciatura)</t>
+  </si>
+  <si>
+    <t>9,33</t>
+  </si>
+  <si>
+    <t>22,00</t>
+  </si>
+  <si>
+    <t>4,32</t>
+  </si>
+  <si>
+    <t>Língua Portuguesa e Respectiva Literatura (Bacharelado/Licenciatura)</t>
+  </si>
+  <si>
+    <t>2,40</t>
+  </si>
+  <si>
+    <t>13,33</t>
+  </si>
+  <si>
+    <t>7,62</t>
+  </si>
+  <si>
+    <t>3,30</t>
+  </si>
+  <si>
+    <t>Línguas Estrangeiras Aplicadas - MSI (Bacharelado)</t>
+  </si>
+  <si>
+    <t>3,69</t>
+  </si>
+  <si>
+    <t>Matemática (Bacharelado/Licenciatura)</t>
+  </si>
+  <si>
+    <t>10,33</t>
+  </si>
+  <si>
+    <t>6,69</t>
+  </si>
+  <si>
+    <t>2,97</t>
+  </si>
+  <si>
+    <t>Medicina (Bacharelado)</t>
+  </si>
+  <si>
+    <t>190,50</t>
+  </si>
+  <si>
+    <t>50,67</t>
+  </si>
+  <si>
+    <t>168,33</t>
+  </si>
+  <si>
+    <t>103,50</t>
+  </si>
+  <si>
+    <t>400,00</t>
+  </si>
+  <si>
+    <t>285,50</t>
+  </si>
+  <si>
+    <t>126,89</t>
+  </si>
+  <si>
+    <t>Medicina Veterinária (Bacharelado)</t>
+  </si>
+  <si>
+    <t>16,75</t>
+  </si>
+  <si>
+    <t>35,00</t>
+  </si>
+  <si>
+    <t>24,33</t>
+  </si>
+  <si>
+    <t>10,95</t>
+  </si>
+  <si>
+    <t>Museologia (Bacharelado)</t>
+  </si>
+  <si>
+    <t>2,07</t>
+  </si>
+  <si>
+    <t>0,91</t>
+  </si>
+  <si>
+    <t>Música (Bacharelado)*</t>
+  </si>
+  <si>
+    <t>0,96</t>
+  </si>
+  <si>
+    <t>Música (Licenciatura)*</t>
+  </si>
+  <si>
+    <t>2,69</t>
+  </si>
+  <si>
+    <t>Nutrição (Bacharelado)</t>
+  </si>
+  <si>
+    <t>6,80</t>
+  </si>
+  <si>
+    <t>18,33</t>
+  </si>
+  <si>
+    <t>12,60</t>
+  </si>
+  <si>
+    <t>37,67</t>
+  </si>
+  <si>
+    <t>23,93</t>
+  </si>
+  <si>
+    <t>10,47</t>
+  </si>
+  <si>
+    <t>Odontologia (Bacharelado)</t>
+  </si>
+  <si>
+    <t>20,50</t>
+  </si>
+  <si>
+    <t>8,80</t>
+  </si>
+  <si>
+    <t>24,00</t>
+  </si>
+  <si>
+    <t>51,00</t>
+  </si>
+  <si>
+    <t>31,92</t>
+  </si>
+  <si>
+    <t>13,83</t>
+  </si>
+  <si>
+    <t>2,45</t>
+  </si>
+  <si>
+    <t>5,38</t>
+  </si>
+  <si>
+    <t>4,09</t>
+  </si>
+  <si>
+    <t>5,12</t>
+  </si>
+  <si>
+    <t>2,29</t>
+  </si>
+  <si>
+    <t>Psicologia (Bacharelado / Licenciatura / Psicólogo)</t>
+  </si>
+  <si>
+    <t>20,00</t>
+  </si>
+  <si>
+    <t>25,00</t>
+  </si>
+  <si>
+    <t>18,29</t>
+  </si>
+  <si>
+    <t>49,60</t>
+  </si>
+  <si>
+    <t>31,64</t>
+  </si>
+  <si>
+    <t>13,92</t>
+  </si>
+  <si>
+    <t>Química Tecnológica (Bacharelado)</t>
+  </si>
+  <si>
+    <t>Relações Internacionais (Bacharelado)</t>
+  </si>
+  <si>
+    <t>11,67</t>
   </si>
   <si>
     <t>5,29</t>
-  </si>
-  <si>
-    <t>16,80</t>
-  </si>
-  <si>
-    <t>8,64</t>
-  </si>
-  <si>
-    <t>3,80</t>
-  </si>
-  <si>
-    <t>Fonoaudiologia</t>
-  </si>
-  <si>
-    <t>2,17</t>
-  </si>
-  <si>
-    <t>11,00</t>
-  </si>
-  <si>
-    <t>5,38</t>
-  </si>
-  <si>
-    <t>2,39</t>
-  </si>
-  <si>
-    <t>Saúde Coletiva</t>
-  </si>
-  <si>
-    <t>1,48</t>
-  </si>
-  <si>
-    <t>Terapia Ocupacional</t>
-  </si>
-  <si>
-    <t>4,80</t>
-  </si>
-  <si>
-    <t>2,91</t>
-  </si>
-  <si>
-    <t>Total - FCE</t>
-  </si>
-  <si>
-    <t>Campus UnB — Darcy Ribeiro (Plano Piloto) / DF</t>
-  </si>
-  <si>
-    <t>8,17</t>
-  </si>
-  <si>
-    <t>6,63</t>
-  </si>
-  <si>
-    <t>Agronomia (Bacharelado)</t>
-  </si>
-  <si>
-    <t>5,25</t>
-  </si>
-  <si>
-    <t>1,92</t>
-  </si>
-  <si>
-    <t>5,13</t>
-  </si>
-  <si>
-    <t>3,25</t>
-  </si>
-  <si>
-    <t>9,38</t>
-  </si>
-  <si>
-    <t>2,59</t>
-  </si>
-  <si>
-    <t>22,50</t>
-  </si>
-  <si>
-    <t>7,50</t>
-  </si>
-  <si>
-    <t>25,75</t>
-  </si>
-  <si>
-    <t>23,56</t>
-  </si>
-  <si>
-    <t>10,60</t>
-  </si>
-  <si>
-    <t>Artes Cênicas (Bacharelado/Licenciatura) *</t>
-  </si>
-  <si>
-    <t>16,00</t>
-  </si>
-  <si>
-    <t>9,58</t>
-  </si>
-  <si>
-    <t>4,42</t>
-  </si>
-  <si>
-    <t>Artes Plásticas (Bacharelado/Licenciatura)*</t>
-  </si>
-  <si>
-    <t>9,23</t>
-  </si>
-  <si>
-    <t>Bacharelado em Química</t>
-  </si>
-  <si>
-    <t>2,20</t>
-  </si>
-  <si>
-    <t>5,67</t>
-  </si>
-  <si>
-    <t>4,14</t>
-  </si>
-  <si>
-    <t>1,81</t>
-  </si>
-  <si>
-    <t>Biblioteconomia (Bacharelado)</t>
-  </si>
-  <si>
-    <t>7,75</t>
-  </si>
-  <si>
-    <t>3,83</t>
-  </si>
-  <si>
-    <t>1,73</t>
-  </si>
-  <si>
-    <t>Biotecnologia (Bacharelado)</t>
-  </si>
-  <si>
-    <t>7,39</t>
-  </si>
-  <si>
-    <t>Ciência da Computação (Bacharelado)</t>
-  </si>
-  <si>
-    <t>18,50</t>
-  </si>
-  <si>
-    <t>14,50</t>
-  </si>
-  <si>
-    <t>6,53</t>
-  </si>
-  <si>
-    <t>Ciência Política (Bacharelado)</t>
-  </si>
-  <si>
-    <t>2,13</t>
-  </si>
-  <si>
-    <t>4,57</t>
-  </si>
-  <si>
-    <t>10,80</t>
-  </si>
-  <si>
-    <t>8,32</t>
-  </si>
-  <si>
-    <t>3,66</t>
-  </si>
-  <si>
-    <t>Ciências Biológicas (Bacharelado)</t>
-  </si>
-  <si>
-    <t>13,00</t>
-  </si>
-  <si>
-    <t>12,00</t>
-  </si>
-  <si>
-    <t>10,00</t>
-  </si>
-  <si>
-    <t>28,00</t>
-  </si>
-  <si>
-    <t>18,11</t>
-  </si>
-  <si>
-    <t>8,15</t>
-  </si>
-  <si>
-    <t>1,82</t>
-  </si>
-  <si>
-    <t>3,70</t>
-  </si>
-  <si>
-    <t>7,86</t>
-  </si>
-  <si>
-    <t>5,65</t>
-  </si>
-  <si>
-    <t>Ciências Econômicas (Bacharelado)</t>
-  </si>
-  <si>
-    <t>7,33</t>
-  </si>
-  <si>
-    <t>5,80</t>
-  </si>
-  <si>
-    <t>16,40</t>
-  </si>
-  <si>
-    <t>12,77</t>
-  </si>
-  <si>
-    <t>5,62</t>
-  </si>
-  <si>
-    <t>Ciências Sociais - Antropologia / Sociologia Bacharelado / Licenciatura</t>
-  </si>
-  <si>
-    <t>4,60</t>
-  </si>
-  <si>
-    <t>1,69</t>
-  </si>
-  <si>
-    <t>9,11</t>
-  </si>
-  <si>
-    <t>5,85</t>
-  </si>
-  <si>
-    <t>2,60</t>
-  </si>
-  <si>
-    <t>Comunicação Social – Audiovisual / Publicidade e Propaganda (Bacharelados)</t>
-  </si>
-  <si>
-    <t>21,50</t>
-  </si>
-  <si>
-    <t>3,14</t>
-  </si>
-  <si>
-    <t>12,75</t>
-  </si>
-  <si>
-    <t>7,71</t>
-  </si>
-  <si>
-    <t>31,75</t>
-  </si>
-  <si>
-    <t>20,75</t>
-  </si>
-  <si>
-    <t>9,43</t>
-  </si>
-  <si>
-    <t>Design – Programação Visual / Projeto do Produto (Bacharelados)*</t>
-  </si>
-  <si>
-    <t>13,50</t>
-  </si>
-  <si>
-    <t>15,89</t>
-  </si>
-  <si>
-    <t>7,15</t>
-  </si>
-  <si>
-    <t>28,67</t>
-  </si>
-  <si>
-    <t>11,11</t>
-  </si>
-  <si>
-    <t>26,17</t>
-  </si>
-  <si>
-    <t>18,44</t>
-  </si>
-  <si>
-    <t>53,00</t>
-  </si>
-  <si>
-    <t>36,44</t>
-  </si>
-  <si>
-    <t>Educação Física (Bacharelado)</t>
-  </si>
-  <si>
-    <t>5,14</t>
-  </si>
-  <si>
-    <t>8,95</t>
-  </si>
-  <si>
-    <t>3,94</t>
-  </si>
-  <si>
-    <t>Educação Física (Licenciatura)</t>
-  </si>
-  <si>
-    <t>2,63</t>
-  </si>
-  <si>
-    <t>6,60</t>
-  </si>
-  <si>
-    <t>4,71</t>
-  </si>
-  <si>
-    <t>5,36</t>
-  </si>
-  <si>
-    <t>2,36</t>
-  </si>
-  <si>
-    <t>Enfermagem (Bacharelado)</t>
-  </si>
-  <si>
-    <t>13,75</t>
-  </si>
-  <si>
-    <t>26,75</t>
-  </si>
-  <si>
-    <t>12,44</t>
-  </si>
-  <si>
-    <t>5,60</t>
-  </si>
-  <si>
-    <t>Engenharia Ambiental (Bacharelado)</t>
-  </si>
-  <si>
-    <t>3,75</t>
-  </si>
-  <si>
-    <t>7,25</t>
-  </si>
-  <si>
-    <t>Engenharia Civil (Bacharelado)</t>
-  </si>
-  <si>
-    <t>7,83</t>
-  </si>
-  <si>
-    <t>17,25</t>
-  </si>
-  <si>
-    <t>11,50</t>
-  </si>
-  <si>
-    <t>32,25</t>
-  </si>
-  <si>
-    <t>21,56</t>
-  </si>
-  <si>
-    <t>9,70</t>
-  </si>
-  <si>
-    <t>Engenharia de Computação (Bacharelado)</t>
-  </si>
-  <si>
-    <t>6,75</t>
-  </si>
-  <si>
-    <t>3,67</t>
-  </si>
-  <si>
-    <t>9,56</t>
-  </si>
-  <si>
-    <t>4,30</t>
-  </si>
-  <si>
-    <t>Engenharia de Redes de Comunicação (Bacharelado)</t>
-  </si>
-  <si>
-    <t>Engenharia Elétrica (Bacharelado)</t>
-  </si>
-  <si>
-    <t>3,90</t>
-  </si>
-  <si>
-    <t>Engenharia Florestal (Bacharelado)</t>
-  </si>
-  <si>
-    <t>3,05</t>
-  </si>
-  <si>
-    <t>1,34</t>
-  </si>
-  <si>
-    <t>Engenharia Mecânica (Bacharelado)</t>
-  </si>
-  <si>
-    <t>13,25</t>
-  </si>
-  <si>
-    <t>11,78</t>
-  </si>
-  <si>
-    <t>5,30</t>
-  </si>
-  <si>
-    <t>Engenharia Mecatrônica – Controle e Automação (Bacharelado)</t>
-  </si>
-  <si>
-    <t>10,75</t>
-  </si>
-  <si>
-    <t>Engenharia Química (Bacharelado)</t>
-  </si>
-  <si>
-    <t>10,25</t>
-  </si>
-  <si>
-    <t>Estatística (Bacharelado)</t>
-  </si>
-  <si>
-    <t>3,06</t>
-  </si>
-  <si>
-    <t>1,38</t>
-  </si>
-  <si>
-    <t>4,94</t>
-  </si>
-  <si>
-    <t>2,23</t>
-  </si>
-  <si>
-    <t>Filosofia (Bacharelado/Licenciatura )</t>
-  </si>
-  <si>
-    <t>4,61</t>
-  </si>
-  <si>
-    <t>Física (Bacharelado/Licenciatura/Física Computacional)</t>
-  </si>
-  <si>
-    <t>6,94</t>
-  </si>
-  <si>
-    <t>3,08</t>
-  </si>
-  <si>
-    <t>Geofísica (Bacharelado)</t>
-  </si>
-  <si>
-    <t>0,97</t>
-  </si>
-  <si>
-    <t>Geografia (Bacharelado/Licenciatura)</t>
-  </si>
-  <si>
-    <t>0,83</t>
-  </si>
-  <si>
-    <t>4,81</t>
-  </si>
-  <si>
-    <t>2,14</t>
-  </si>
-  <si>
-    <t>Geologia (Bacharelado)</t>
-  </si>
-  <si>
-    <t>6,33</t>
-  </si>
-  <si>
-    <t>11,33</t>
-  </si>
-  <si>
-    <t>6,71</t>
-  </si>
-  <si>
-    <t>2,94</t>
-  </si>
-  <si>
-    <t>História (Bacharelado/Licenciatura)</t>
-  </si>
-  <si>
-    <t>9,75</t>
-  </si>
-  <si>
-    <t>18,00</t>
-  </si>
-  <si>
-    <t>10,72</t>
-  </si>
-  <si>
-    <t>4,83</t>
-  </si>
-  <si>
-    <t>Jornalismo (Bacharelado)</t>
-  </si>
-  <si>
-    <t>28,50</t>
-  </si>
-  <si>
-    <t>18,60</t>
-  </si>
-  <si>
-    <t>8,45</t>
-  </si>
-  <si>
-    <t>Letras – Tradução – Francês (Bacharelado)</t>
-  </si>
-  <si>
-    <t>0,94</t>
-  </si>
-  <si>
-    <t>Letras – Tradução – Inglês (Bacharelado)</t>
-  </si>
-  <si>
-    <t>3,41</t>
-  </si>
-  <si>
-    <t>Licenciatura em Letras – Português do Brasil como Segunda Língua (Licenciatura)</t>
-  </si>
-  <si>
-    <t>2,15</t>
-  </si>
-  <si>
-    <t>0,93</t>
-  </si>
-  <si>
-    <t>Língua Francesa e Respectiva Literatura (Bacharelado/Licenciatura)</t>
-  </si>
-  <si>
-    <t>1,83</t>
-  </si>
-  <si>
-    <t>Língua Inglesa e Respectiva Literatura (Bacharelado/Licenciatura)</t>
-  </si>
-  <si>
-    <t>9,33</t>
-  </si>
-  <si>
-    <t>22,00</t>
-  </si>
-  <si>
-    <t>4,32</t>
-  </si>
-  <si>
-    <t>Língua Portuguesa e Respectiva Literatura (Bacharelado/Licenciatura)</t>
-  </si>
-  <si>
-    <t>2,40</t>
-  </si>
-  <si>
-    <t>13,33</t>
-  </si>
-  <si>
-    <t>7,62</t>
-  </si>
-  <si>
-    <t>3,30</t>
-  </si>
-  <si>
-    <t>Línguas Estrangeiras Aplicadas - MSI (Bacharelado)</t>
-  </si>
-  <si>
-    <t>3,69</t>
-  </si>
-  <si>
-    <t>Matemática (Bacharelado/Licenciatura)</t>
-  </si>
-  <si>
-    <t>10,33</t>
-  </si>
-  <si>
-    <t>6,69</t>
-  </si>
-  <si>
-    <t>2,97</t>
-  </si>
-  <si>
-    <t>Medicina (Bacharelado)</t>
-  </si>
-  <si>
-    <t>190,50</t>
-  </si>
-  <si>
-    <t>50,67</t>
-  </si>
-  <si>
-    <t>168,33</t>
-  </si>
-  <si>
-    <t>103,50</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>285,50</t>
-  </si>
-  <si>
-    <t>126,89</t>
-  </si>
-  <si>
-    <t>Medicina Veterinária (Bacharelado)</t>
-  </si>
-  <si>
-    <t>16,75</t>
-  </si>
-  <si>
-    <t>35,00</t>
-  </si>
-  <si>
-    <t>24,33</t>
-  </si>
-  <si>
-    <t>10,95</t>
-  </si>
-  <si>
-    <t>Museologia (Bacharelado)</t>
-  </si>
-  <si>
-    <t>2,07</t>
-  </si>
-  <si>
-    <t>0,91</t>
-  </si>
-  <si>
-    <t>Música (Bacharelado)*</t>
-  </si>
-  <si>
-    <t>0,96</t>
-  </si>
-  <si>
-    <t>Música (Licenciatura)*</t>
-  </si>
-  <si>
-    <t>2,69</t>
-  </si>
-  <si>
-    <t>Nutrição (Bacharelado)</t>
-  </si>
-  <si>
-    <t>6,80</t>
-  </si>
-  <si>
-    <t>18,33</t>
-  </si>
-  <si>
-    <t>12,60</t>
-  </si>
-  <si>
-    <t>37,67</t>
-  </si>
-  <si>
-    <t>23,93</t>
-  </si>
-  <si>
-    <t>10,47</t>
-  </si>
-  <si>
-    <t>Odontologia (Bacharelado)</t>
-  </si>
-  <si>
-    <t>20,50</t>
-  </si>
-  <si>
-    <t>8,80</t>
-  </si>
-  <si>
-    <t>24,00</t>
-  </si>
-  <si>
-    <t>51,00</t>
-  </si>
-  <si>
-    <t>31,92</t>
-  </si>
-  <si>
-    <t>13,83</t>
-  </si>
-  <si>
-    <t>2,45</t>
-  </si>
-  <si>
-    <t>4,09</t>
-  </si>
-  <si>
-    <t>5,12</t>
-  </si>
-  <si>
-    <t>2,29</t>
-  </si>
-  <si>
-    <t>Psicologia (Bacharelado / Licenciatura / Psicólogo)</t>
-  </si>
-  <si>
-    <t>20,00</t>
-  </si>
-  <si>
-    <t>25,00</t>
-  </si>
-  <si>
-    <t>18,29</t>
-  </si>
-  <si>
-    <t>49,60</t>
-  </si>
-  <si>
-    <t>31,64</t>
-  </si>
-  <si>
-    <t>13,92</t>
-  </si>
-  <si>
-    <t>Química Tecnológica (Bacharelado)</t>
-  </si>
-  <si>
-    <t>Relações Internacionais (Bacharelado)</t>
-  </si>
-  <si>
-    <t>11,67</t>
   </si>
   <si>
     <t>18,68</t>
@@ -1447,13 +1378,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1489,7 +1426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1503,8 +1440,8 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1512,8 +1449,23 @@
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1817,35 +1769,35 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:W78"/>
+  <dimension ref="A1:W69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="12" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -1855,228 +1807,228 @@
       <c r="B1" s="8">
         <v>1</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="9">
         <v>2</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="9">
         <v>3</v>
       </c>
       <c r="E1" s="8">
         <v>4</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="9">
         <v>5</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="9">
         <v>6</v>
       </c>
       <c r="H1" s="8">
         <v>7</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="9">
         <v>8</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1" s="9">
         <v>9</v>
       </c>
       <c r="K1" s="8">
         <v>10</v>
       </c>
-      <c r="L1" s="5">
+      <c r="L1" s="9">
         <v>11</v>
       </c>
-      <c r="M1" s="5">
+      <c r="M1" s="9">
         <v>12</v>
       </c>
       <c r="N1" s="8">
         <v>13</v>
       </c>
-      <c r="O1" s="5">
+      <c r="O1" s="9">
         <v>14</v>
       </c>
-      <c r="P1" s="5">
+      <c r="P1" s="9">
         <v>15</v>
       </c>
       <c r="Q1" s="8">
         <v>16</v>
       </c>
-      <c r="R1" s="5">
+      <c r="R1" s="9">
         <v>17</v>
       </c>
-      <c r="S1" s="5">
+      <c r="S1" s="9">
         <v>18</v>
       </c>
       <c r="T1" s="8">
         <v>19</v>
       </c>
-      <c r="U1" s="5">
+      <c r="U1" s="9">
         <v>20</v>
       </c>
-      <c r="V1" s="5">
+      <c r="V1" s="9">
         <v>21</v>
       </c>
       <c r="W1" s="8">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="1"/>
+      <c r="K2" s="10"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="1"/>
+      <c r="N2" s="10"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="1"/>
+      <c r="Q2" s="10"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="1"/>
+      <c r="T2" s="10"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-      <c r="W2" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="W2" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="1"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="1"/>
+      <c r="N3" s="10"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="1"/>
+      <c r="Q3" s="10"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="1"/>
+      <c r="T3" s="10"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-      <c r="W3" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="W3" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="10"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="1"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="10"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="1"/>
+      <c r="T4" s="10"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-      <c r="W4" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="W4" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="1"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
-      <c r="T5" s="1"/>
+      <c r="T5" s="10"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+      <c r="W5" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="10"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="1"/>
+      <c r="T6" s="10"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="W6" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="30">
+      <c r="W6" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="31.5">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2085,7 +2037,7 @@
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -2094,7 +2046,7 @@
       <c r="G7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -2103,7 +2055,7 @@
       <c r="J7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -2112,7 +2064,7 @@
       <c r="M7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="O7" s="2" t="s">
@@ -2121,7 +2073,7 @@
       <c r="P7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="R7" s="2" t="s">
@@ -2130,7 +2082,7 @@
       <c r="S7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="U7" s="2" t="s">
@@ -2139,1319 +2091,1417 @@
       <c r="V7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
       <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>213</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="10"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="10"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="10"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="10"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-      <c r="T8" s="1"/>
+      <c r="T8" s="10"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="1"/>
+      <c r="W8" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
       <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>17</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="10"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="1"/>
+      <c r="N9" s="10"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="10"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="1"/>
+      <c r="T9" s="10"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
-      <c r="W9" s="1"/>
+      <c r="W9" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
       <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="3">
-        <v>8</v>
-      </c>
-      <c r="G10" s="3">
-        <v>45</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="I10" s="3">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
-        <v>75</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="L10" s="3">
-        <v>7</v>
-      </c>
-      <c r="M10" s="3">
-        <v>62</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O10" s="3">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
-        <v>113</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="R10" s="3">
-        <v>22</v>
-      </c>
-      <c r="S10" s="3">
-        <v>223</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="U10" s="3">
-        <v>50</v>
-      </c>
-      <c r="V10" s="3">
-        <v>223</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>220</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
       <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>221</v>
+        <v>19</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
       </c>
       <c r="D11" s="3">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>171</v>
+        <v>15</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="F11" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" s="3">
-        <v>4</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>71</v>
+        <v>13</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="I11" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11" s="3">
+        <v>21</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" s="3">
         <v>9</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="L11" s="3">
-        <v>7</v>
-      </c>
       <c r="M11" s="3">
-        <v>13</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>159</v>
+        <v>26</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="O11" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P11" s="3">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>222</v>
+        <v>49</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>214</v>
       </c>
       <c r="R11" s="3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="S11" s="3">
-        <v>80</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>223</v>
+        <v>179</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="U11" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="V11" s="3">
-        <v>80</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>34</v>
+        <v>179</v>
+      </c>
+      <c r="W11" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
       <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>224</v>
+        <v>20</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="C12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="3">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>225</v>
+        <v>21</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="F12" s="3">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3">
+        <v>23</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="I12" s="3">
         <v>8</v>
       </c>
-      <c r="G12" s="3">
-        <v>24</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" s="3">
-        <v>5</v>
-      </c>
       <c r="J12" s="3">
-        <v>52</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>226</v>
+        <v>41</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="L12" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M12" s="3">
-        <v>37</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>227</v>
+        <v>39</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="O12" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P12" s="3">
-        <v>84</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>228</v>
+        <v>75</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="R12" s="3">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="S12" s="3">
-        <v>190</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>229</v>
+        <v>207</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="U12" s="3">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="V12" s="3">
-        <v>190</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>230</v>
+        <v>207</v>
+      </c>
+      <c r="W12" s="10" t="s">
+        <v>222</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
       <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>231</v>
+        <v>21</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
       <c r="D13" s="3">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>155</v>
+        <v>45</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="F13" s="3">
         <v>6</v>
       </c>
       <c r="G13" s="3">
-        <v>13</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>232</v>
+        <v>19</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="I13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" s="3">
-        <v>20</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>108</v>
+        <v>38</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="L13" s="3">
         <v>6</v>
       </c>
       <c r="M13" s="3">
+        <v>45</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="O13" s="3">
+        <v>4</v>
+      </c>
+      <c r="P13" s="3">
+        <v>103</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="R13" s="3">
         <v>18</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="O13" s="3">
-        <v>3</v>
-      </c>
-      <c r="P13" s="3">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="R13" s="3">
-        <v>16</v>
-      </c>
       <c r="S13" s="3">
-        <v>86</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>234</v>
+        <v>424</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="U13" s="3">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V13" s="3">
-        <v>86</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>235</v>
+        <v>424</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
       <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>236</v>
+        <v>22</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="C14" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="F14" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G14" s="3">
-        <v>6</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>51</v>
+        <v>8</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="I14" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J14" s="3">
-        <v>9</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>98</v>
+        <v>18</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="L14" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M14" s="3">
-        <v>6</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="O14" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P14" s="3">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="R14" s="3">
         <v>12</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="R14" s="3">
-        <v>27</v>
-      </c>
       <c r="S14" s="3">
-        <v>40</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>237</v>
+        <v>115</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="U14" s="3">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="V14" s="3">
-        <v>40</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>51</v>
+        <v>115</v>
+      </c>
+      <c r="W14" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
       <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>238</v>
+        <v>23</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="C15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="3">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
+        <v>12</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="3">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
+        <v>10</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="O15" s="3">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="R15" s="3">
+        <v>13</v>
+      </c>
+      <c r="S15" s="3">
         <v>120</v>
       </c>
-      <c r="F15" s="3">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3">
-        <v>9</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="3">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
-        <v>16</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="L15" s="3">
-        <v>7</v>
-      </c>
-      <c r="M15" s="3">
-        <v>14</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O15" s="3">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="R15" s="3">
-        <v>22</v>
-      </c>
-      <c r="S15" s="3">
-        <v>64</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>240</v>
+      <c r="T15" s="10" t="s">
+        <v>235</v>
       </c>
       <c r="U15" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="V15" s="3">
-        <v>64</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>190</v>
+        <v>120</v>
+      </c>
+      <c r="W15" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
       <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>241</v>
+        <v>24</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="3">
+        <v>5</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="I16" s="3">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3">
+        <v>5</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="3">
+        <v>5</v>
+      </c>
+      <c r="M16" s="3">
+        <v>11</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="O16" s="3">
+        <v>3</v>
+      </c>
+      <c r="P16" s="3">
         <v>17</v>
       </c>
-      <c r="D16" s="3">
-        <v>75</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3">
-        <v>47</v>
-      </c>
-      <c r="G16" s="3">
-        <v>101</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="3">
-        <v>29</v>
-      </c>
-      <c r="J16" s="3">
-        <v>181</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="3">
-        <v>43</v>
-      </c>
-      <c r="M16" s="3">
-        <v>150</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="3">
-        <v>29</v>
-      </c>
-      <c r="P16" s="3">
-        <v>297</v>
-      </c>
-      <c r="Q16" s="1"/>
+      <c r="Q16" s="10" t="s">
+        <v>238</v>
+      </c>
       <c r="R16" s="3">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="S16" s="3">
-        <v>683</v>
-      </c>
-      <c r="T16" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>239</v>
+      </c>
       <c r="U16" s="3">
-        <v>296</v>
+        <v>32</v>
       </c>
       <c r="V16" s="3">
-        <v>683</v>
-      </c>
-      <c r="W16" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="W16" s="10" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
       <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6</v>
+      </c>
+      <c r="G17" s="3">
+        <v>15</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3">
+        <v>23</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="3">
+        <v>6</v>
+      </c>
+      <c r="M17" s="3">
+        <v>20</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="O17" s="3">
+        <v>4</v>
+      </c>
+      <c r="P17" s="3">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="R17" s="3">
+        <v>18</v>
+      </c>
+      <c r="S17" s="3">
+        <v>69</v>
+      </c>
+      <c r="T17" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="U17" s="3">
+        <v>40</v>
+      </c>
+      <c r="V17" s="3">
+        <v>69</v>
+      </c>
+      <c r="W17" s="10" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
       <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>13</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="3">
+        <v>6</v>
+      </c>
+      <c r="G18" s="3">
+        <v>8</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="I18" s="3">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
+        <v>11</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="3">
+        <v>6</v>
+      </c>
+      <c r="M18" s="3">
+        <v>16</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O18" s="3">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" s="3">
+        <v>18</v>
+      </c>
+      <c r="S18" s="3">
+        <v>133</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="U18" s="3">
+        <v>40</v>
+      </c>
+      <c r="V18" s="3">
+        <v>133</v>
+      </c>
+      <c r="W18" s="10" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
       <c r="A19" s="8">
+        <v>27</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>21</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="3">
+        <v>6</v>
+      </c>
+      <c r="G19" s="3">
+        <v>13</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="I19" s="3">
+        <v>4</v>
+      </c>
+      <c r="J19" s="3">
+        <v>28</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="L19" s="3">
+        <v>6</v>
+      </c>
+      <c r="M19" s="3">
+        <v>28</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O19" s="3">
+        <v>4</v>
+      </c>
+      <c r="P19" s="3">
+        <v>74</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="R19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="1"/>
+      <c r="S19" s="3">
+        <v>261</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="U19" s="3">
+        <v>40</v>
+      </c>
+      <c r="V19" s="3">
+        <v>261</v>
+      </c>
+      <c r="W19" s="10" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
       <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3">
+        <v>26</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F20" s="3">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3">
+        <v>17</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="I20" s="3">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
         <v>25</v>
       </c>
-      <c r="C20" s="3">
-        <v>3</v>
-      </c>
-      <c r="D20" s="3">
-        <v>15</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="K20" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="3">
-        <v>9</v>
-      </c>
-      <c r="G20" s="3">
-        <v>13</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I20" s="3">
-        <v>6</v>
-      </c>
-      <c r="J20" s="3">
-        <v>21</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="L20" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M20" s="3">
-        <v>26</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="O20" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P20" s="3">
-        <v>49</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>243</v>
+        <v>54</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>255</v>
       </c>
       <c r="R20" s="3">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="S20" s="3">
-        <v>179</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>244</v>
+        <v>183</v>
+      </c>
+      <c r="T20" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="U20" s="3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="V20" s="3">
-        <v>179</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>76</v>
+        <v>183</v>
+      </c>
+      <c r="W20" s="10" t="s">
+        <v>257</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
       <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>245</v>
+        <v>29</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="C21" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" s="3">
-        <v>21</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>246</v>
+        <v>26</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>259</v>
       </c>
       <c r="F21" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G21" s="3">
-        <v>23</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>247</v>
+        <v>26</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="I21" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J21" s="3">
-        <v>41</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>248</v>
+        <v>48</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>260</v>
       </c>
       <c r="L21" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M21" s="3">
-        <v>39</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>249</v>
+        <v>60</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="O21" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P21" s="3">
-        <v>75</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>250</v>
+        <v>112</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>262</v>
       </c>
       <c r="R21" s="3">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="S21" s="3">
-        <v>207</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>35</v>
+        <v>326</v>
+      </c>
+      <c r="T21" s="10" t="s">
+        <v>263</v>
       </c>
       <c r="U21" s="3">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="V21" s="3">
-        <v>207</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>251</v>
+        <v>326</v>
+      </c>
+      <c r="W21" s="10" t="s">
+        <v>264</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
       <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" s="3">
-        <v>45</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>252</v>
+        <v>17</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="F22" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G22" s="3">
-        <v>19</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>265</v>
       </c>
       <c r="I22" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J22" s="3">
-        <v>38</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="L22" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M22" s="3">
-        <v>45</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>253</v>
+        <v>37</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>266</v>
       </c>
       <c r="O22" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P22" s="3">
-        <v>103</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>254</v>
+        <v>55</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>267</v>
       </c>
       <c r="R22" s="3">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="S22" s="3">
-        <v>424</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>255</v>
+        <v>175</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>268</v>
       </c>
       <c r="U22" s="3">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="V22" s="3">
-        <v>424</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>256</v>
+        <v>175</v>
+      </c>
+      <c r="W22" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
       <c r="A23" s="8">
+        <v>31</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
-        <v>11</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>233</v>
+      <c r="E23" s="10" t="s">
+        <v>270</v>
       </c>
       <c r="F23" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G23" s="3">
-        <v>8</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>104</v>
+        <v>19</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="I23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J23" s="3">
-        <v>18</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>63</v>
+        <v>29</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>271</v>
       </c>
       <c r="L23" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M23" s="3">
-        <v>16</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>86</v>
+        <v>35</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="O23" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P23" s="3">
-        <v>32</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>258</v>
+        <v>82</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>272</v>
       </c>
       <c r="R23" s="3">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="S23" s="3">
-        <v>115</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>259</v>
+        <v>281</v>
+      </c>
+      <c r="T23" s="10" t="s">
+        <v>273</v>
       </c>
       <c r="U23" s="3">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="V23" s="3">
-        <v>115</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>260</v>
+        <v>281</v>
+      </c>
+      <c r="W23" s="10" t="s">
+        <v>274</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
       <c r="A24" s="8">
+        <v>32</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="E24" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="F24" s="3">
         <v>13</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="3">
-        <v>5</v>
-      </c>
       <c r="G24" s="3">
-        <v>5</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>57</v>
+        <v>22</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>277</v>
       </c>
       <c r="I24" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J24" s="3">
-        <v>12</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>86</v>
+        <v>35</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="L24" s="3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M24" s="3">
-        <v>10</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>72</v>
+        <v>45</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="O24" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P24" s="3">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>225</v>
+        <v>82</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="R24" s="3">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="S24" s="3">
-        <v>120</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>262</v>
+        <v>234</v>
+      </c>
+      <c r="T24" s="10" t="s">
+        <v>279</v>
       </c>
       <c r="U24" s="3">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="V24" s="3">
-        <v>120</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>86</v>
+        <v>234</v>
+      </c>
+      <c r="W24" s="10" t="s">
+        <v>280</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
       <c r="A25" s="8">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>263</v>
+        <v>33</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>281</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
       </c>
       <c r="D25" s="3">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>282</v>
       </c>
       <c r="F25" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G25" s="3">
-        <v>4</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>151</v>
+        <v>22</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>283</v>
       </c>
       <c r="I25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J25" s="3">
-        <v>5</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>284</v>
       </c>
       <c r="L25" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M25" s="3">
-        <v>11</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>264</v>
+        <v>54</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>285</v>
       </c>
       <c r="O25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P25" s="3">
-        <v>17</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>265</v>
+        <v>127</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>286</v>
       </c>
       <c r="R25" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="S25" s="3">
-        <v>58</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>266</v>
+        <v>415</v>
+      </c>
+      <c r="T25" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="U25" s="3">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="V25" s="3">
-        <v>58</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>267</v>
+        <v>415</v>
+      </c>
+      <c r="W25" s="10" t="s">
+        <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
       <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>268</v>
+        <v>34</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>289</v>
       </c>
       <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>11</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" s="3">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3">
+        <v>7</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="3">
         <v>2</v>
       </c>
-      <c r="D26" s="3">
-        <v>5</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="3">
-        <v>6</v>
-      </c>
-      <c r="G26" s="3">
-        <v>15</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I26" s="3">
-        <v>4</v>
-      </c>
       <c r="J26" s="3">
-        <v>23</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="L26" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M26" s="3">
+        <v>13</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="O26" s="3">
+        <v>2</v>
+      </c>
+      <c r="P26" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="R26" s="3">
+        <v>9</v>
+      </c>
+      <c r="S26" s="3">
+        <v>143</v>
+      </c>
+      <c r="T26" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="U26" s="3">
         <v>20</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="O26" s="3">
-        <v>4</v>
-      </c>
-      <c r="P26" s="3">
-        <v>31</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="R26" s="3">
-        <v>18</v>
-      </c>
-      <c r="S26" s="3">
-        <v>69</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="U26" s="3">
-        <v>40</v>
-      </c>
       <c r="V26" s="3">
-        <v>69</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>271</v>
+        <v>143</v>
+      </c>
+      <c r="W26" s="10" t="s">
+        <v>292</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
       <c r="A27" s="8">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3</v>
+      </c>
+      <c r="D27" s="3">
+        <v>86</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="F27" s="3">
+        <v>9</v>
+      </c>
+      <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="I27" s="3">
+        <v>6</v>
+      </c>
+      <c r="J27" s="3">
+        <v>157</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="L27" s="3">
+        <v>9</v>
+      </c>
+      <c r="M27" s="3">
+        <v>166</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="O27" s="3">
+        <v>6</v>
+      </c>
+      <c r="P27" s="3">
+        <v>318</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="R27" s="3">
+        <v>27</v>
+      </c>
+      <c r="S27" s="3">
+        <v>984</v>
+      </c>
+      <c r="T27" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="U27" s="3">
+        <v>60</v>
+      </c>
+      <c r="V27" s="3">
+        <v>984</v>
+      </c>
+      <c r="W27" s="10" t="s">
         <v>272</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2</v>
-      </c>
-      <c r="D27" s="3">
-        <v>13</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="3">
-        <v>6</v>
-      </c>
-      <c r="G27" s="3">
-        <v>8</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I27" s="3">
-        <v>4</v>
-      </c>
-      <c r="J27" s="3">
-        <v>11</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="3">
-        <v>6</v>
-      </c>
-      <c r="M27" s="3">
-        <v>16</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="O27" s="3">
-        <v>4</v>
-      </c>
-      <c r="P27" s="3">
-        <v>34</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R27" s="3">
-        <v>18</v>
-      </c>
-      <c r="S27" s="3">
-        <v>133</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="U27" s="3">
-        <v>40</v>
-      </c>
-      <c r="V27" s="3">
-        <v>133</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
       <c r="A28" s="8">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>274</v>
+        <v>36</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>299</v>
       </c>
       <c r="C28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" s="3">
-        <v>21</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>133</v>
+        <v>36</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>260</v>
       </c>
       <c r="F28" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G28" s="3">
-        <v>13</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>232</v>
+        <v>24</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="I28" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J28" s="3">
-        <v>28</v>
-      </c>
-      <c r="K28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" s="10" t="s">
         <v>138</v>
       </c>
       <c r="L28" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M28" s="3">
-        <v>28</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>96</v>
+        <v>36</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>300</v>
       </c>
       <c r="O28" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P28" s="3">
-        <v>74</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>275</v>
+        <v>60</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>260</v>
       </c>
       <c r="R28" s="3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="S28" s="3">
-        <v>261</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>276</v>
+        <v>197</v>
+      </c>
+      <c r="T28" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="U28" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="V28" s="3">
-        <v>261</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>277</v>
+        <v>197</v>
+      </c>
+      <c r="W28" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
       <c r="A29" s="8">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>278</v>
+        <v>37</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>303</v>
       </c>
       <c r="C29" s="3">
         <v>3</v>
       </c>
       <c r="D29" s="3">
-        <v>26</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>225</v>
+        <v>21</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="F29" s="3">
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>17</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>279</v>
+        <v>21</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>304</v>
       </c>
       <c r="I29" s="3">
         <v>5</v>
       </c>
       <c r="J29" s="3">
-        <v>25</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>305</v>
       </c>
       <c r="L29" s="3">
         <v>7</v>
       </c>
       <c r="M29" s="3">
-        <v>32</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>280</v>
+        <v>33</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>306</v>
       </c>
       <c r="O29" s="3">
         <v>5</v>
@@ -3459,3505 +3509,2866 @@
       <c r="P29" s="3">
         <v>54</v>
       </c>
-      <c r="Q29" s="1" t="s">
-        <v>281</v>
+      <c r="Q29" s="10" t="s">
+        <v>255</v>
       </c>
       <c r="R29" s="3">
         <v>22</v>
       </c>
       <c r="S29" s="3">
-        <v>183</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>282</v>
+        <v>118</v>
+      </c>
+      <c r="T29" s="10" t="s">
+        <v>307</v>
       </c>
       <c r="U29" s="3">
         <v>50</v>
       </c>
       <c r="V29" s="3">
-        <v>183</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>283</v>
+        <v>118</v>
+      </c>
+      <c r="W29" s="10" t="s">
+        <v>308</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
       <c r="A30" s="8">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>284</v>
+        <v>38</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>309</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
       </c>
       <c r="D30" s="3">
+        <v>15</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" s="3">
+        <v>6</v>
+      </c>
+      <c r="G30" s="3">
+        <v>32</v>
+      </c>
+      <c r="H30" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F30" s="3">
-        <v>6</v>
-      </c>
-      <c r="G30" s="3">
-        <v>26</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="I30" s="3">
         <v>4</v>
       </c>
       <c r="J30" s="3">
-        <v>48</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>286</v>
+        <v>55</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>310</v>
       </c>
       <c r="L30" s="3">
         <v>6</v>
       </c>
       <c r="M30" s="3">
-        <v>60</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>287</v>
+        <v>57</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="O30" s="3">
         <v>4</v>
       </c>
       <c r="P30" s="3">
-        <v>112</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>288</v>
+        <v>107</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>311</v>
       </c>
       <c r="R30" s="3">
         <v>18</v>
       </c>
       <c r="S30" s="3">
-        <v>326</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>289</v>
+        <v>224</v>
+      </c>
+      <c r="T30" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="U30" s="3">
         <v>40</v>
       </c>
       <c r="V30" s="3">
-        <v>326</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>290</v>
+        <v>224</v>
+      </c>
+      <c r="W30" s="10" t="s">
+        <v>313</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
       <c r="A31" s="8">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>314</v>
       </c>
       <c r="C31" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" s="3">
-        <v>17</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>66</v>
+        <v>6</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="F31" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G31" s="3">
-        <v>20</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>291</v>
+        <v>9</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="I31" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J31" s="3">
-        <v>27</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>111</v>
+        <v>15</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>315</v>
       </c>
       <c r="L31" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M31" s="3">
-        <v>37</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>292</v>
+        <v>16</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="O31" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P31" s="3">
-        <v>55</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>293</v>
+        <v>29</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>316</v>
       </c>
       <c r="R31" s="3">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="S31" s="3">
-        <v>175</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>294</v>
+        <v>108</v>
+      </c>
+      <c r="T31" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="U31" s="3">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="V31" s="3">
-        <v>175</v>
-      </c>
-      <c r="W31" s="1" t="s">
-        <v>72</v>
+        <v>108</v>
+      </c>
+      <c r="W31" s="10" t="s">
+        <v>113</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
       <c r="A32" s="8">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>295</v>
+        <v>40</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>317</v>
       </c>
       <c r="C32" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" s="3">
-        <v>22</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>296</v>
+        <v>37</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>249</v>
       </c>
       <c r="F32" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G32" s="3">
-        <v>19</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>126</v>
+        <v>47</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>318</v>
       </c>
       <c r="I32" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J32" s="3">
-        <v>29</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>297</v>
+        <v>69</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>319</v>
       </c>
       <c r="L32" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M32" s="3">
-        <v>35</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>320</v>
       </c>
       <c r="O32" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P32" s="3">
-        <v>82</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>298</v>
+        <v>129</v>
+      </c>
+      <c r="Q32" s="10" t="s">
+        <v>321</v>
       </c>
       <c r="R32" s="3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="S32" s="3">
-        <v>281</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>299</v>
+        <v>388</v>
+      </c>
+      <c r="T32" s="10" t="s">
+        <v>322</v>
       </c>
       <c r="U32" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="V32" s="3">
-        <v>281</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>300</v>
+        <v>388</v>
+      </c>
+      <c r="W32" s="10" t="s">
+        <v>323</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
       <c r="A33" s="8">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>301</v>
+        <v>41</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>324</v>
       </c>
       <c r="C33" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" s="3">
-        <v>23</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>302</v>
+        <v>14</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="F33" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G33" s="3">
+        <v>14</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33" s="3">
+        <v>4</v>
+      </c>
+      <c r="J33" s="3">
+        <v>27</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="L33" s="3">
+        <v>6</v>
+      </c>
+      <c r="M33" s="3">
         <v>22</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="I33" s="3">
-        <v>10</v>
-      </c>
-      <c r="J33" s="3">
-        <v>35</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L33" s="3">
-        <v>13</v>
-      </c>
-      <c r="M33" s="3">
-        <v>45</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>148</v>
+      <c r="N33" s="10" t="s">
+        <v>326</v>
       </c>
       <c r="O33" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P33" s="3">
-        <v>82</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>304</v>
+        <v>51</v>
+      </c>
+      <c r="Q33" s="10" t="s">
+        <v>284</v>
       </c>
       <c r="R33" s="3">
+        <v>18</v>
+      </c>
+      <c r="S33" s="3">
+        <v>172</v>
+      </c>
+      <c r="T33" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="U33" s="3">
         <v>40</v>
       </c>
-      <c r="S33" s="3">
-        <v>234</v>
-      </c>
-      <c r="T33" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="U33" s="3">
-        <v>90</v>
-      </c>
       <c r="V33" s="3">
-        <v>234</v>
-      </c>
-      <c r="W33" s="1" t="s">
-        <v>306</v>
+        <v>172</v>
+      </c>
+      <c r="W33" s="10" t="s">
+        <v>328</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
       <c r="A34" s="8">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>307</v>
+        <v>42</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>329</v>
       </c>
       <c r="C34" s="3">
         <v>2</v>
       </c>
       <c r="D34" s="3">
-        <v>43</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>308</v>
+        <v>7</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="F34" s="3">
+        <v>6</v>
+      </c>
+      <c r="G34" s="3">
+        <v>4</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34" s="3">
+        <v>4</v>
+      </c>
+      <c r="J34" s="3">
         <v>7</v>
       </c>
-      <c r="G34" s="3">
-        <v>22</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I34" s="3">
-        <v>4</v>
-      </c>
-      <c r="J34" s="3">
-        <v>51</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>310</v>
+      <c r="K34" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="L34" s="3">
+        <v>6</v>
+      </c>
+      <c r="M34" s="3">
         <v>7</v>
       </c>
-      <c r="M34" s="3">
-        <v>54</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>311</v>
+      <c r="N34" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="O34" s="3">
         <v>4</v>
       </c>
       <c r="P34" s="3">
-        <v>127</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>312</v>
+        <v>15</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>315</v>
       </c>
       <c r="R34" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S34" s="3">
-        <v>415</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>313</v>
+        <v>81</v>
+      </c>
+      <c r="T34" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="U34" s="3">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="V34" s="3">
-        <v>415</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>314</v>
+        <v>81</v>
+      </c>
+      <c r="W34" s="10" t="s">
+        <v>165</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
       <c r="A35" s="8">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>315</v>
+        <v>43</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>330</v>
       </c>
       <c r="C35" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" s="3">
         <v>11</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>233</v>
+      <c r="E35" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="F35" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G35" s="3">
-        <v>7</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>73</v>
+        <v>17</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="I35" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J35" s="3">
-        <v>12</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>63</v>
+        <v>29</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>316</v>
       </c>
       <c r="L35" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M35" s="3">
-        <v>13</v>
-      </c>
-      <c r="N35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" s="10" t="s">
         <v>172</v>
       </c>
       <c r="O35" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P35" s="3">
-        <v>27</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>316</v>
+        <v>42</v>
+      </c>
+      <c r="Q35" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="R35" s="3">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="S35" s="3">
-        <v>143</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>317</v>
+        <v>156</v>
+      </c>
+      <c r="T35" s="10" t="s">
+        <v>234</v>
       </c>
       <c r="U35" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="V35" s="3">
-        <v>143</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>318</v>
+        <v>156</v>
+      </c>
+      <c r="W35" s="10" t="s">
+        <v>331</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
       <c r="A36" s="8">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>77</v>
+        <v>44</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>332</v>
       </c>
       <c r="C36" s="3">
         <v>3</v>
       </c>
       <c r="D36" s="3">
-        <v>86</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>319</v>
+        <v>9</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="F36" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G36" s="3">
-        <v>100</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>320</v>
+        <v>6</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="I36" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J36" s="3">
-        <v>157</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>321</v>
+        <v>11</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="L36" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M36" s="3">
-        <v>166</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>322</v>
+        <v>12</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="O36" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P36" s="3">
-        <v>318</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>323</v>
+        <v>19</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>333</v>
       </c>
       <c r="R36" s="3">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="S36" s="3">
-        <v>984</v>
-      </c>
-      <c r="T36" s="1" t="s">
-        <v>324</v>
+        <v>67</v>
+      </c>
+      <c r="T36" s="10" t="s">
+        <v>334</v>
       </c>
       <c r="U36" s="3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="V36" s="3">
-        <v>984</v>
-      </c>
-      <c r="W36" s="1" t="s">
-        <v>298</v>
+        <v>67</v>
+      </c>
+      <c r="W36" s="10" t="s">
+        <v>335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
       <c r="A37" s="8">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>325</v>
+        <v>45</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>336</v>
       </c>
       <c r="C37" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" s="3">
-        <v>36</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>286</v>
+        <v>10</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="F37" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G37" s="3">
-        <v>24</v>
-      </c>
-      <c r="H37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="10" t="s">
         <v>99</v>
       </c>
       <c r="I37" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J37" s="3">
+        <v>23</v>
+      </c>
+      <c r="K37" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="L37" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M37" s="3">
-        <v>36</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>326</v>
+        <v>33</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="O37" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P37" s="3">
-        <v>60</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>286</v>
+        <v>53</v>
+      </c>
+      <c r="Q37" s="10" t="s">
+        <v>337</v>
       </c>
       <c r="R37" s="3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="S37" s="3">
-        <v>197</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>327</v>
+        <v>212</v>
+      </c>
+      <c r="T37" s="10" t="s">
+        <v>338</v>
       </c>
       <c r="U37" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="V37" s="3">
-        <v>197</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>328</v>
+        <v>212</v>
+      </c>
+      <c r="W37" s="10" t="s">
+        <v>339</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
       <c r="A38" s="8">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>329</v>
+        <v>46</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>340</v>
       </c>
       <c r="C38" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" s="3">
-        <v>21</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>138</v>
+        <v>15</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>224</v>
       </c>
       <c r="F38" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G38" s="3">
-        <v>21</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>330</v>
+        <v>14</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="I38" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J38" s="3">
-        <v>33</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>331</v>
+        <v>18</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="L38" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M38" s="3">
-        <v>33</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>332</v>
+        <v>27</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="O38" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P38" s="3">
-        <v>54</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>281</v>
+        <v>43</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="R38" s="3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="S38" s="3">
-        <v>118</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>333</v>
+        <v>164</v>
+      </c>
+      <c r="T38" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="U38" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="V38" s="3">
-        <v>118</v>
-      </c>
-      <c r="W38" s="1" t="s">
-        <v>334</v>
+        <v>164</v>
+      </c>
+      <c r="W38" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
       <c r="A39" s="8">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>335</v>
+        <v>47</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>342</v>
       </c>
       <c r="C39" s="3">
         <v>2</v>
       </c>
       <c r="D39" s="3">
-        <v>15</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>253</v>
+        <v>14</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="F39" s="3">
         <v>6</v>
       </c>
       <c r="G39" s="3">
-        <v>32</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I39" s="3">
         <v>4</v>
       </c>
       <c r="J39" s="3">
-        <v>55</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>336</v>
+        <v>18</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="L39" s="3">
         <v>6</v>
       </c>
       <c r="M39" s="3">
-        <v>57</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="O39" s="3">
         <v>4</v>
       </c>
       <c r="P39" s="3">
-        <v>107</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>337</v>
+        <v>41</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="R39" s="3">
         <v>18</v>
       </c>
       <c r="S39" s="3">
-        <v>224</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>338</v>
+        <v>133</v>
+      </c>
+      <c r="T39" s="10" t="s">
+        <v>246</v>
       </c>
       <c r="U39" s="3">
         <v>40</v>
       </c>
       <c r="V39" s="3">
-        <v>224</v>
-      </c>
-      <c r="W39" s="1" t="s">
-        <v>339</v>
+        <v>133</v>
+      </c>
+      <c r="W39" s="10" t="s">
+        <v>142</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
       <c r="A40" s="8">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>340</v>
+        <v>48</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>344</v>
       </c>
       <c r="C40" s="3">
         <v>2</v>
       </c>
       <c r="D40" s="3">
-        <v>6</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>99</v>
+        <v>8</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="F40" s="3">
         <v>6</v>
       </c>
       <c r="G40" s="3">
-        <v>9</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>98</v>
+        <v>1</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="I40" s="3">
         <v>4</v>
       </c>
       <c r="J40" s="3">
-        <v>15</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>341</v>
+        <v>3</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="L40" s="3">
         <v>6</v>
       </c>
       <c r="M40" s="3">
-        <v>16</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>120</v>
+        <v>4</v>
+      </c>
+      <c r="N40" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="O40" s="3">
         <v>4</v>
       </c>
       <c r="P40" s="3">
-        <v>29</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>342</v>
+        <v>10</v>
+      </c>
+      <c r="Q40" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="R40" s="3">
         <v>18</v>
       </c>
       <c r="S40" s="3">
-        <v>108</v>
-      </c>
-      <c r="T40" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
+      </c>
+      <c r="T40" s="10" t="s">
+        <v>345</v>
       </c>
       <c r="U40" s="3">
         <v>40</v>
       </c>
       <c r="V40" s="3">
-        <v>108</v>
-      </c>
-      <c r="W40" s="1" t="s">
-        <v>113</v>
+        <v>55</v>
+      </c>
+      <c r="W40" s="10" t="s">
+        <v>346</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
       <c r="A41" s="8">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>343</v>
+        <v>49</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="C41" s="3">
         <v>2</v>
       </c>
       <c r="D41" s="3">
-        <v>37</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>275</v>
+        <v>4</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="F41" s="3">
         <v>6</v>
       </c>
       <c r="G41" s="3">
-        <v>47</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>344</v>
+        <v>8</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="I41" s="3">
         <v>4</v>
       </c>
       <c r="J41" s="3">
-        <v>69</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>345</v>
+        <v>11</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="L41" s="3">
         <v>6</v>
       </c>
       <c r="M41" s="3">
-        <v>69</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>346</v>
+        <v>15</v>
+      </c>
+      <c r="N41" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="O41" s="3">
         <v>4</v>
       </c>
       <c r="P41" s="3">
-        <v>129</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>347</v>
+        <v>26</v>
+      </c>
+      <c r="Q41" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="R41" s="3">
         <v>18</v>
       </c>
       <c r="S41" s="3">
-        <v>388</v>
-      </c>
-      <c r="T41" s="1" t="s">
-        <v>348</v>
+        <v>89</v>
+      </c>
+      <c r="T41" s="10" t="s">
+        <v>347</v>
       </c>
       <c r="U41" s="3">
         <v>40</v>
       </c>
       <c r="V41" s="3">
-        <v>388</v>
-      </c>
-      <c r="W41" s="1" t="s">
-        <v>349</v>
+        <v>89</v>
+      </c>
+      <c r="W41" s="10" t="s">
+        <v>348</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
       <c r="A42" s="8">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>350</v>
+        <v>50</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>349</v>
       </c>
       <c r="C42" s="3">
         <v>2</v>
       </c>
       <c r="D42" s="3">
-        <v>14</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>138</v>
+        <v>11</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="F42" s="3">
         <v>6</v>
       </c>
       <c r="G42" s="3">
-        <v>14</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>73</v>
+        <v>4</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="I42" s="3">
         <v>4</v>
       </c>
       <c r="J42" s="3">
+        <v>9</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="L42" s="3">
+        <v>6</v>
+      </c>
+      <c r="M42" s="3">
+        <v>13</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="O42" s="3">
+        <v>4</v>
+      </c>
+      <c r="P42" s="3">
         <v>27</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="L42" s="3">
-        <v>6</v>
-      </c>
-      <c r="M42" s="3">
-        <v>22</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="O42" s="3">
-        <v>4</v>
-      </c>
-      <c r="P42" s="3">
-        <v>51</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>310</v>
+      <c r="Q42" s="10" t="s">
+        <v>325</v>
       </c>
       <c r="R42" s="3">
         <v>18</v>
       </c>
       <c r="S42" s="3">
-        <v>172</v>
-      </c>
-      <c r="T42" s="1" t="s">
-        <v>353</v>
+        <v>83</v>
+      </c>
+      <c r="T42" s="10" t="s">
+        <v>350</v>
       </c>
       <c r="U42" s="3">
         <v>40</v>
       </c>
       <c r="V42" s="3">
-        <v>172</v>
-      </c>
-      <c r="W42" s="1" t="s">
-        <v>354</v>
+        <v>83</v>
+      </c>
+      <c r="W42" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
       <c r="A43" s="8">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>355</v>
+        <v>51</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>351</v>
       </c>
       <c r="C43" s="3">
         <v>2</v>
       </c>
       <c r="D43" s="3">
+        <v>10</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="3">
+        <v>6</v>
+      </c>
+      <c r="G43" s="3">
         <v>7</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F43" s="3">
-        <v>6</v>
-      </c>
-      <c r="G43" s="3">
-        <v>4</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>51</v>
+      <c r="H43" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="I43" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J43" s="3">
-        <v>7</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>139</v>
+        <v>13</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="L43" s="3">
         <v>6</v>
       </c>
       <c r="M43" s="3">
-        <v>7</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>198</v>
+        <v>13</v>
+      </c>
+      <c r="N43" s="10" t="s">
+        <v>248</v>
       </c>
       <c r="O43" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P43" s="3">
-        <v>15</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>341</v>
+        <v>29</v>
+      </c>
+      <c r="Q43" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="R43" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="S43" s="3">
-        <v>81</v>
-      </c>
-      <c r="T43" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
+      </c>
+      <c r="T43" s="10" t="s">
+        <v>352</v>
       </c>
       <c r="U43" s="3">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="V43" s="3">
-        <v>81</v>
-      </c>
-      <c r="W43" s="1" t="s">
-        <v>165</v>
+        <v>111</v>
+      </c>
+      <c r="W43" s="10" t="s">
+        <v>353</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
       <c r="A44" s="8">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>356</v>
+        <v>52</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>354</v>
       </c>
       <c r="C44" s="3">
         <v>2</v>
       </c>
       <c r="D44" s="3">
-        <v>11</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>121</v>
+        <v>2</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F44" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G44" s="3">
-        <v>17</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>132</v>
+        <v>3</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="I44" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J44" s="3">
+        <v>3</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L44" s="3">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3">
+        <v>5</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O44" s="3">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q44" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="R44" s="3">
+        <v>13</v>
+      </c>
+      <c r="S44" s="3">
         <v>29</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="L44" s="3">
-        <v>6</v>
-      </c>
-      <c r="M44" s="3">
-        <v>26</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O44" s="3">
-        <v>4</v>
-      </c>
-      <c r="P44" s="3">
-        <v>42</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="R44" s="3">
-        <v>18</v>
-      </c>
-      <c r="S44" s="3">
-        <v>156</v>
-      </c>
-      <c r="T44" s="1" t="s">
-        <v>225</v>
+      <c r="T44" s="10" t="s">
+        <v>348</v>
       </c>
       <c r="U44" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="V44" s="3">
-        <v>156</v>
-      </c>
-      <c r="W44" s="1" t="s">
-        <v>357</v>
+        <v>29</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>355</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
       <c r="A45" s="8">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2</v>
+      </c>
+      <c r="D45" s="3">
+        <v>10</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="3">
+        <v>6</v>
+      </c>
+      <c r="G45" s="3">
+        <v>5</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="I45" s="3">
+        <v>3</v>
+      </c>
+      <c r="J45" s="3">
+        <v>9</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L45" s="3">
+        <v>6</v>
+      </c>
+      <c r="M45" s="3">
+        <v>13</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="O45" s="3">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3">
+        <v>24</v>
+      </c>
+      <c r="Q45" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R45" s="3">
+        <v>16</v>
+      </c>
+      <c r="S45" s="3">
+        <v>77</v>
+      </c>
+      <c r="T45" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="C45" s="3">
-        <v>3</v>
-      </c>
-      <c r="D45" s="3">
-        <v>9</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F45" s="3">
-        <v>8</v>
-      </c>
-      <c r="G45" s="3">
-        <v>6</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I45" s="3">
-        <v>5</v>
-      </c>
-      <c r="J45" s="3">
-        <v>11</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="L45" s="3">
-        <v>7</v>
-      </c>
-      <c r="M45" s="3">
-        <v>12</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O45" s="3">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
-        <v>19</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="R45" s="3">
-        <v>22</v>
-      </c>
-      <c r="S45" s="3">
-        <v>67</v>
-      </c>
-      <c r="T45" s="1" t="s">
+      <c r="U45" s="3">
+        <v>36</v>
+      </c>
+      <c r="V45" s="3">
+        <v>77</v>
+      </c>
+      <c r="W45" s="10" t="s">
         <v>359</v>
-      </c>
-      <c r="U45" s="3">
-        <v>50</v>
-      </c>
-      <c r="V45" s="3">
-        <v>67</v>
-      </c>
-      <c r="W45" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
       <c r="A46" s="8">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>361</v>
+        <v>54</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>360</v>
       </c>
       <c r="C46" s="3">
         <v>2</v>
       </c>
       <c r="D46" s="3">
-        <v>10</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>48</v>
+        <v>3</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="F46" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G46" s="3">
-        <v>18</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>99</v>
+        <v>8</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="I46" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J46" s="3">
-        <v>23</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>361</v>
       </c>
       <c r="L46" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M46" s="3">
-        <v>33</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>121</v>
+        <v>11</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="O46" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P46" s="3">
-        <v>53</v>
-      </c>
-      <c r="Q46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q46" s="10" t="s">
         <v>362</v>
       </c>
       <c r="R46" s="3">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S46" s="3">
-        <v>212</v>
-      </c>
-      <c r="T46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T46" s="10" t="s">
         <v>363</v>
       </c>
       <c r="U46" s="3">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="V46" s="3">
-        <v>212</v>
-      </c>
-      <c r="W46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W46" s="10" t="s">
         <v>364</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
       <c r="A47" s="8">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>365</v>
       </c>
       <c r="C47" s="3">
         <v>2</v>
       </c>
       <c r="D47" s="3">
-        <v>15</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>253</v>
+        <v>18</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="F47" s="3">
         <v>6</v>
       </c>
       <c r="G47" s="3">
-        <v>14</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>73</v>
+        <v>24</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="I47" s="3">
         <v>4</v>
       </c>
       <c r="J47" s="3">
-        <v>18</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>100</v>
+        <v>39</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="L47" s="3">
         <v>6</v>
       </c>
       <c r="M47" s="3">
-        <v>27</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="O47" s="3">
         <v>4</v>
       </c>
       <c r="P47" s="3">
-        <v>43</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>366</v>
+        <v>72</v>
+      </c>
+      <c r="Q47" s="10" t="s">
+        <v>367</v>
       </c>
       <c r="R47" s="3">
         <v>18</v>
       </c>
       <c r="S47" s="3">
-        <v>164</v>
-      </c>
-      <c r="T47" s="1" t="s">
-        <v>304</v>
+        <v>193</v>
+      </c>
+      <c r="T47" s="10" t="s">
+        <v>368</v>
       </c>
       <c r="U47" s="3">
         <v>40</v>
       </c>
       <c r="V47" s="3">
-        <v>164</v>
-      </c>
-      <c r="W47" s="1" t="s">
-        <v>67</v>
+        <v>193</v>
+      </c>
+      <c r="W47" s="10" t="s">
+        <v>369</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
       <c r="A48" s="8">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>367</v>
+        <v>56</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>370</v>
       </c>
       <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3">
+        <v>9</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="3">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3">
+        <v>13</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="I48" s="3">
         <v>2</v>
       </c>
-      <c r="D48" s="3">
-        <v>14</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F48" s="3">
-        <v>6</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
+        <v>27</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="L48" s="3">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3">
+        <v>27</v>
+      </c>
+      <c r="N48" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O48" s="3">
+        <v>2</v>
+      </c>
+      <c r="P48" s="3">
+        <v>57</v>
+      </c>
+      <c r="Q48" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="R48" s="3">
         <v>10</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I48" s="3">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3">
-        <v>18</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L48" s="3">
-        <v>6</v>
-      </c>
-      <c r="M48" s="3">
-        <v>19</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O48" s="3">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3">
-        <v>41</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="R48" s="3">
-        <v>18</v>
-      </c>
       <c r="S48" s="3">
-        <v>133</v>
-      </c>
-      <c r="T48" s="1" t="s">
-        <v>273</v>
+        <v>186</v>
+      </c>
+      <c r="T48" s="10" t="s">
+        <v>372</v>
       </c>
       <c r="U48" s="3">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="V48" s="3">
-        <v>133</v>
-      </c>
-      <c r="W48" s="1" t="s">
-        <v>142</v>
+        <v>186</v>
+      </c>
+      <c r="W48" s="10" t="s">
+        <v>373</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
       <c r="A49" s="8">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>369</v>
+        <v>57</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>374</v>
       </c>
       <c r="C49" s="3">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3">
         <v>2</v>
       </c>
-      <c r="D49" s="3">
-        <v>8</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>86</v>
+      <c r="E49" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="F49" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G49" s="3">
         <v>1</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>115</v>
+      <c r="H49" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="I49" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49" s="3">
         <v>3</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>50</v>
+      <c r="K49" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="L49" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M49" s="3">
-        <v>4</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
+      </c>
+      <c r="N49" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="O49" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P49" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>72</v>
+        <v>6</v>
+      </c>
+      <c r="Q49" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="R49" s="3">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3">
+        <v>17</v>
+      </c>
+      <c r="T49" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="U49" s="3">
         <v>18</v>
       </c>
-      <c r="S49" s="3">
-        <v>55</v>
-      </c>
-      <c r="T49" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="U49" s="3">
-        <v>40</v>
-      </c>
       <c r="V49" s="3">
-        <v>55</v>
-      </c>
-      <c r="W49" s="1" t="s">
-        <v>371</v>
+        <v>17</v>
+      </c>
+      <c r="W49" s="10" t="s">
+        <v>375</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
       <c r="A50" s="8">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>93</v>
+        <v>58</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>376</v>
       </c>
       <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3">
+        <v>7</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F50" s="3">
+        <v>4</v>
+      </c>
+      <c r="G50" s="3">
+        <v>9</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I50" s="3">
         <v>2</v>
       </c>
-      <c r="D50" s="3">
-        <v>4</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F50" s="3">
-        <v>6</v>
-      </c>
-      <c r="G50" s="3">
-        <v>8</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I50" s="3">
-        <v>4</v>
-      </c>
       <c r="J50" s="3">
-        <v>11</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="L50" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M50" s="3">
-        <v>15</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>72</v>
+        <v>13</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="O50" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P50" s="3">
-        <v>26</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>70</v>
+        <v>21</v>
+      </c>
+      <c r="Q50" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="R50" s="3">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="S50" s="3">
-        <v>89</v>
-      </c>
-      <c r="T50" s="1" t="s">
-        <v>372</v>
+        <v>75</v>
+      </c>
+      <c r="T50" s="10" t="s">
+        <v>224</v>
       </c>
       <c r="U50" s="3">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="V50" s="3">
-        <v>89</v>
-      </c>
-      <c r="W50" s="1" t="s">
-        <v>373</v>
+        <v>75</v>
+      </c>
+      <c r="W50" s="10" t="s">
+        <v>377</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
       <c r="A51" s="8">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>374</v>
+        <v>59</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="C51" s="3">
         <v>2</v>
       </c>
       <c r="D51" s="3">
-        <v>11</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="F51" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G51" s="3">
         <v>4</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>51</v>
+      <c r="H51" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="I51" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J51" s="3">
+        <v>5</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L51" s="3">
+        <v>4</v>
+      </c>
+      <c r="M51" s="3">
+        <v>6</v>
+      </c>
+      <c r="N51" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O51" s="3">
+        <v>3</v>
+      </c>
+      <c r="P51" s="3">
         <v>9</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L51" s="3">
-        <v>6</v>
-      </c>
-      <c r="M51" s="3">
+      <c r="Q51" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="R51" s="3">
         <v>13</v>
       </c>
-      <c r="N51" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="O51" s="3">
-        <v>4</v>
-      </c>
-      <c r="P51" s="3">
-        <v>27</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="R51" s="3">
-        <v>18</v>
-      </c>
       <c r="S51" s="3">
-        <v>83</v>
-      </c>
-      <c r="T51" s="1" t="s">
-        <v>375</v>
+        <v>28</v>
+      </c>
+      <c r="T51" s="10" t="s">
+        <v>379</v>
       </c>
       <c r="U51" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="V51" s="3">
-        <v>83</v>
-      </c>
-      <c r="W51" s="1" t="s">
-        <v>152</v>
+        <v>28</v>
+      </c>
+      <c r="W51" s="10" t="s">
+        <v>380</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
       <c r="A52" s="8">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>376</v>
+        <v>60</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>381</v>
       </c>
       <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3">
+        <v>3</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" s="3">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I52" s="3">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L52" s="3">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3">
         <v>2</v>
       </c>
-      <c r="D52" s="3">
-        <v>10</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F52" s="3">
-        <v>6</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="N52" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O52" s="3">
+        <v>2</v>
+      </c>
+      <c r="P52" s="3">
         <v>7</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3">
-        <v>13</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="L52" s="3">
-        <v>6</v>
-      </c>
-      <c r="M52" s="3">
-        <v>13</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="O52" s="3">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3">
-        <v>29</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>29</v>
+      <c r="Q52" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="R52" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="S52" s="3">
-        <v>111</v>
-      </c>
-      <c r="T52" s="1" t="s">
-        <v>377</v>
+        <v>22</v>
+      </c>
+      <c r="T52" s="10" t="s">
+        <v>382</v>
       </c>
       <c r="U52" s="3">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="V52" s="3">
-        <v>111</v>
-      </c>
-      <c r="W52" s="1" t="s">
-        <v>378</v>
+        <v>22</v>
+      </c>
+      <c r="W52" s="10" t="s">
+        <v>106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
       <c r="A53" s="8">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>379</v>
+        <v>61</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>383</v>
       </c>
       <c r="C53" s="3">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3">
+        <v>7</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F53" s="3">
+        <v>4</v>
+      </c>
+      <c r="G53" s="3">
+        <v>15</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="I53" s="3">
         <v>2</v>
       </c>
-      <c r="D53" s="3">
+      <c r="J53" s="3">
+        <v>24</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="L53" s="3">
+        <v>3</v>
+      </c>
+      <c r="M53" s="3">
+        <v>28</v>
+      </c>
+      <c r="N53" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="O53" s="3">
         <v>2</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F53" s="3">
-        <v>5</v>
-      </c>
-      <c r="G53" s="3">
-        <v>3</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I53" s="3">
-        <v>3</v>
-      </c>
-      <c r="J53" s="3">
-        <v>3</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L53" s="3">
-        <v>4</v>
-      </c>
-      <c r="M53" s="3">
-        <v>5</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O53" s="3">
-        <v>3</v>
-      </c>
       <c r="P53" s="3">
-        <v>9</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>99</v>
+        <v>44</v>
+      </c>
+      <c r="Q53" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="R53" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S53" s="3">
-        <v>29</v>
-      </c>
-      <c r="T53" s="1" t="s">
-        <v>373</v>
+        <v>95</v>
+      </c>
+      <c r="T53" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="U53" s="3">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="V53" s="3">
-        <v>29</v>
-      </c>
-      <c r="W53" s="1" t="s">
-        <v>380</v>
+        <v>95</v>
+      </c>
+      <c r="W53" s="10" t="s">
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
       <c r="A54" s="8">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>381</v>
+        <v>62</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>387</v>
       </c>
       <c r="C54" s="3">
         <v>2</v>
       </c>
       <c r="D54" s="3">
-        <v>10</v>
-      </c>
-      <c r="E54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
+        <v>12</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="I54" s="3">
+        <v>3</v>
+      </c>
+      <c r="J54" s="3">
+        <v>19</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="L54" s="3">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3">
+        <v>20</v>
+      </c>
+      <c r="N54" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F54" s="3">
-        <v>6</v>
-      </c>
-      <c r="G54" s="3">
-        <v>5</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="I54" s="3">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3">
-        <v>9</v>
-      </c>
-      <c r="K54" s="1" t="s">
+      <c r="O54" s="3">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3">
+        <v>40</v>
+      </c>
+      <c r="Q54" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="R54" s="3">
+        <v>13</v>
+      </c>
+      <c r="S54" s="3">
         <v>99</v>
       </c>
-      <c r="L54" s="3">
-        <v>6</v>
-      </c>
-      <c r="M54" s="3">
-        <v>13</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="O54" s="3">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3">
-        <v>24</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R54" s="3">
-        <v>16</v>
-      </c>
-      <c r="S54" s="3">
-        <v>77</v>
-      </c>
-      <c r="T54" s="1" t="s">
-        <v>383</v>
+      <c r="T54" s="10" t="s">
+        <v>390</v>
       </c>
       <c r="U54" s="3">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="V54" s="3">
-        <v>77</v>
-      </c>
-      <c r="W54" s="1" t="s">
-        <v>384</v>
+        <v>99</v>
+      </c>
+      <c r="W54" s="10" t="s">
+        <v>391</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
       <c r="A55" s="8">
-        <v>54</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>385</v>
+        <v>63</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>392</v>
       </c>
       <c r="C55" s="3">
         <v>2</v>
       </c>
       <c r="D55" s="3">
-        <v>3</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>98</v>
+        <v>2</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F55" s="3">
         <v>5</v>
       </c>
       <c r="G55" s="3">
-        <v>8</v>
-      </c>
-      <c r="H55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="I55" s="3">
+        <v>3</v>
+      </c>
+      <c r="J55" s="3">
+        <v>9</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L55" s="3">
+        <v>4</v>
+      </c>
+      <c r="M55" s="3">
+        <v>5</v>
+      </c>
+      <c r="N55" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O55" s="3">
+        <v>3</v>
+      </c>
+      <c r="P55" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q55" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="R55" s="3">
+        <v>13</v>
+      </c>
+      <c r="S55" s="3">
+        <v>48</v>
+      </c>
+      <c r="T55" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="U55" s="3">
+        <v>30</v>
+      </c>
+      <c r="V55" s="3">
+        <v>48</v>
+      </c>
+      <c r="W55" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="I55" s="3">
-        <v>3</v>
-      </c>
-      <c r="J55" s="3">
-        <v>19</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="L55" s="3">
-        <v>5</v>
-      </c>
-      <c r="M55" s="3">
-        <v>11</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="O55" s="3">
-        <v>3</v>
-      </c>
-      <c r="P55" s="3">
-        <v>34</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="R55" s="3">
-        <v>14</v>
-      </c>
-      <c r="S55" s="3">
-        <v>94</v>
-      </c>
-      <c r="T55" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="U55" s="3">
-        <v>32</v>
-      </c>
-      <c r="V55" s="3">
-        <v>94</v>
-      </c>
-      <c r="W55" s="1" t="s">
-        <v>389</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
       <c r="A56" s="8">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>390</v>
+        <v>64</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>394</v>
       </c>
       <c r="C56" s="3">
         <v>2</v>
       </c>
       <c r="D56" s="3">
-        <v>18</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>74</v>
+        <v>14</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="F56" s="3">
         <v>6</v>
       </c>
       <c r="G56" s="3">
-        <v>24</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>86</v>
+        <v>5</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>357</v>
       </c>
       <c r="I56" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J56" s="3">
-        <v>39</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>391</v>
+        <v>13</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="L56" s="3">
         <v>6</v>
       </c>
       <c r="M56" s="3">
-        <v>40</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>108</v>
+        <v>11</v>
+      </c>
+      <c r="N56" s="10" t="s">
+        <v>382</v>
       </c>
       <c r="O56" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P56" s="3">
-        <v>72</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>392</v>
+        <v>31</v>
+      </c>
+      <c r="Q56" s="10" t="s">
+        <v>395</v>
       </c>
       <c r="R56" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="S56" s="3">
-        <v>193</v>
-      </c>
-      <c r="T56" s="1" t="s">
-        <v>393</v>
+        <v>107</v>
+      </c>
+      <c r="T56" s="10" t="s">
+        <v>396</v>
       </c>
       <c r="U56" s="3">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="V56" s="3">
-        <v>193</v>
-      </c>
-      <c r="W56" s="1" t="s">
-        <v>394</v>
+        <v>107</v>
+      </c>
+      <c r="W56" s="10" t="s">
+        <v>397</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
       <c r="A57" s="8">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>395</v>
+        <v>65</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>398</v>
       </c>
       <c r="C57" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" s="3">
-        <v>9</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>74</v>
+        <v>381</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>399</v>
       </c>
       <c r="F57" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G57" s="3">
-        <v>13</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>249</v>
+        <v>304</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>400</v>
       </c>
       <c r="I57" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" s="3">
-        <v>27</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>316</v>
+        <v>505</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>401</v>
       </c>
       <c r="L57" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M57" s="3">
-        <v>27</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>74</v>
+        <v>621</v>
+      </c>
+      <c r="N57" s="10" t="s">
+        <v>402</v>
       </c>
       <c r="O57" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P57" s="3">
-        <v>57</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>396</v>
+        <v>1200</v>
+      </c>
+      <c r="Q57" s="10" t="s">
+        <v>403</v>
       </c>
       <c r="R57" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="S57" s="3">
-        <v>186</v>
-      </c>
-      <c r="T57" s="1" t="s">
-        <v>397</v>
+        <v>4568</v>
+      </c>
+      <c r="T57" s="10" t="s">
+        <v>404</v>
       </c>
       <c r="U57" s="3">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="V57" s="3">
-        <v>186</v>
-      </c>
-      <c r="W57" s="1" t="s">
-        <v>398</v>
+        <v>4568</v>
+      </c>
+      <c r="W57" s="10" t="s">
+        <v>405</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
       <c r="A58" s="8">
-        <v>57</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>399</v>
+        <v>66</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>406</v>
       </c>
       <c r="C58" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" s="3">
-        <v>2</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>104</v>
+        <v>43</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>282</v>
       </c>
       <c r="F58" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G58" s="3">
-        <v>1</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>189</v>
+        <v>36</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="I58" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J58" s="3">
-        <v>3</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>98</v>
+        <v>67</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>407</v>
       </c>
       <c r="L58" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M58" s="3">
-        <v>3</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
+      </c>
+      <c r="N58" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="O58" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P58" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q58" s="1" t="s">
-        <v>63</v>
+        <v>140</v>
+      </c>
+      <c r="Q58" s="10" t="s">
+        <v>408</v>
       </c>
       <c r="R58" s="3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="S58" s="3">
-        <v>17</v>
-      </c>
-      <c r="T58" s="1" t="s">
-        <v>279</v>
+        <v>438</v>
+      </c>
+      <c r="T58" s="10" t="s">
+        <v>409</v>
       </c>
       <c r="U58" s="3">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="V58" s="3">
-        <v>17</v>
-      </c>
-      <c r="W58" s="1" t="s">
-        <v>400</v>
+        <v>438</v>
+      </c>
+      <c r="W58" s="10" t="s">
+        <v>410</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
       <c r="A59" s="8">
-        <v>58</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>401</v>
+        <v>67</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>411</v>
       </c>
       <c r="C59" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" s="3">
+        <v>4</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F59" s="3">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
+        <v>4</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="I59" s="3">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3">
+        <v>5</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L59" s="3">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
+        <v>4</v>
+      </c>
+      <c r="N59" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="O59" s="3">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3">
         <v>7</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F59" s="3">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3">
-        <v>9</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2</v>
-      </c>
-      <c r="J59" s="3">
-        <v>12</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L59" s="3">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3">
-        <v>13</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O59" s="3">
-        <v>2</v>
-      </c>
-      <c r="P59" s="3">
-        <v>21</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>133</v>
+      <c r="Q59" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="R59" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S59" s="3">
-        <v>75</v>
-      </c>
-      <c r="T59" s="1" t="s">
-        <v>253</v>
+        <v>29</v>
+      </c>
+      <c r="T59" s="10" t="s">
+        <v>412</v>
       </c>
       <c r="U59" s="3">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="V59" s="3">
-        <v>75</v>
-      </c>
-      <c r="W59" s="1" t="s">
-        <v>402</v>
+        <v>29</v>
+      </c>
+      <c r="W59" s="10" t="s">
+        <v>413</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
       <c r="A60" s="8">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>403</v>
+        <v>68</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>414</v>
       </c>
       <c r="C60" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" s="3">
         <v>1</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>71</v>
+      <c r="E60" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F60" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G60" s="3">
-        <v>4</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>151</v>
+        <v>1</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="I60" s="3">
         <v>3</v>
       </c>
       <c r="J60" s="3">
-        <v>5</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="L60" s="3">
         <v>4</v>
       </c>
       <c r="M60" s="3">
-        <v>6</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>98</v>
+        <v>3</v>
+      </c>
+      <c r="N60" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="O60" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P60" s="3">
-        <v>9</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>99</v>
+        <v>4</v>
+      </c>
+      <c r="Q60" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="R60" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S60" s="3">
-        <v>28</v>
-      </c>
-      <c r="T60" s="1" t="s">
-        <v>404</v>
+        <v>25</v>
+      </c>
+      <c r="T60" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="U60" s="3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="V60" s="3">
-        <v>28</v>
-      </c>
-      <c r="W60" s="1" t="s">
-        <v>405</v>
+        <v>25</v>
+      </c>
+      <c r="W60" s="10" t="s">
+        <v>415</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
       <c r="A61" s="8">
-        <v>60</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>406</v>
+        <v>69</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>416</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="3">
-        <v>3</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>99</v>
+        <v>4</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="F61" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G61" s="3">
         <v>1</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>116</v>
+      <c r="H61" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="I61" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J61" s="3">
-        <v>3</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>57</v>
+        <v>4</v>
+      </c>
+      <c r="K61" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="L61" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M61" s="3">
-        <v>2</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>71</v>
+        <v>11</v>
+      </c>
+      <c r="N61" s="10" t="s">
+        <v>326</v>
       </c>
       <c r="O61" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P61" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q61" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="R61" s="3">
         <v>7</v>
       </c>
-      <c r="Q61" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="R61" s="3">
-        <v>12</v>
-      </c>
       <c r="S61" s="3">
-        <v>22</v>
-      </c>
-      <c r="T61" s="1" t="s">
-        <v>407</v>
+        <v>43</v>
+      </c>
+      <c r="T61" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="U61" s="3">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="V61" s="3">
-        <v>22</v>
-      </c>
-      <c r="W61" s="1" t="s">
-        <v>106</v>
+        <v>43</v>
+      </c>
+      <c r="W61" s="10" t="s">
+        <v>417</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
       <c r="A62" s="8">
-        <v>61</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>408</v>
+        <v>70</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>418</v>
       </c>
       <c r="C62" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" s="3">
-        <v>7</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>138</v>
+        <v>32</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="F62" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G62" s="3">
-        <v>15</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>341</v>
+        <v>34</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>419</v>
       </c>
       <c r="I62" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J62" s="3">
-        <v>24</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>286</v>
+        <v>55</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>420</v>
       </c>
       <c r="L62" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M62" s="3">
-        <v>28</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>409</v>
+        <v>63</v>
+      </c>
+      <c r="N62" s="10" t="s">
+        <v>421</v>
       </c>
       <c r="O62" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P62" s="3">
-        <v>44</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>410</v>
+        <v>113</v>
+      </c>
+      <c r="Q62" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="R62" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S62" s="3">
-        <v>95</v>
-      </c>
-      <c r="T62" s="1" t="s">
-        <v>44</v>
+        <v>335</v>
+      </c>
+      <c r="T62" s="10" t="s">
+        <v>423</v>
       </c>
       <c r="U62" s="3">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="V62" s="3">
-        <v>95</v>
-      </c>
-      <c r="W62" s="1" t="s">
-        <v>411</v>
+        <v>335</v>
+      </c>
+      <c r="W62" s="10" t="s">
+        <v>424</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
       <c r="A63" s="8">
-        <v>62</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>412</v>
+        <v>71</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>425</v>
       </c>
       <c r="C63" s="3">
         <v>2</v>
       </c>
       <c r="D63" s="3">
-        <v>9</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>100</v>
+        <v>41</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>426</v>
       </c>
       <c r="F63" s="3">
         <v>5</v>
       </c>
       <c r="G63" s="3">
-        <v>12</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>413</v>
+        <v>44</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>427</v>
       </c>
       <c r="I63" s="3">
         <v>3</v>
       </c>
       <c r="J63" s="3">
-        <v>19</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>386</v>
+        <v>72</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>428</v>
       </c>
       <c r="L63" s="3">
         <v>4</v>
       </c>
       <c r="M63" s="3">
-        <v>20</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>48</v>
+        <v>88</v>
+      </c>
+      <c r="N63" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="O63" s="3">
         <v>3</v>
       </c>
       <c r="P63" s="3">
-        <v>40</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>414</v>
+        <v>153</v>
+      </c>
+      <c r="Q63" s="10" t="s">
+        <v>429</v>
       </c>
       <c r="R63" s="3">
         <v>13</v>
       </c>
       <c r="S63" s="3">
-        <v>99</v>
-      </c>
-      <c r="T63" s="1" t="s">
         <v>415</v>
+      </c>
+      <c r="T63" s="10" t="s">
+        <v>430</v>
       </c>
       <c r="U63" s="3">
         <v>30</v>
       </c>
       <c r="V63" s="3">
-        <v>99</v>
-      </c>
-      <c r="W63" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
+      </c>
+      <c r="W63" s="10" t="s">
+        <v>431</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
       <c r="A64" s="8">
-        <v>63</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>417</v>
+        <v>72</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="C64" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" s="3">
-        <v>2</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>57</v>
+        <v>19</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="F64" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G64" s="3">
-        <v>4</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>151</v>
+        <v>27</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="I64" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J64" s="3">
-        <v>9</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>99</v>
+        <v>43</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>433</v>
       </c>
       <c r="L64" s="3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M64" s="3">
-        <v>5</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>103</v>
+        <v>45</v>
+      </c>
+      <c r="N64" s="10" t="s">
+        <v>434</v>
       </c>
       <c r="O64" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P64" s="3">
-        <v>15</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
+      </c>
+      <c r="Q64" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="R64" s="3">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="S64" s="3">
-        <v>48</v>
-      </c>
-      <c r="T64" s="1" t="s">
-        <v>418</v>
+        <v>174</v>
+      </c>
+      <c r="T64" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="U64" s="3">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="V64" s="3">
-        <v>48</v>
-      </c>
-      <c r="W64" s="1" t="s">
-        <v>34</v>
+        <v>174</v>
+      </c>
+      <c r="W64" s="10" t="s">
+        <v>436</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
       <c r="A65" s="8">
-        <v>64</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>419</v>
+        <v>73</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>437</v>
       </c>
       <c r="C65" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" s="3">
-        <v>14</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>138</v>
+        <v>60</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>438</v>
       </c>
       <c r="F65" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G65" s="3">
+        <v>76</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I65" s="3">
         <v>5</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="I65" s="3">
-        <v>3</v>
-      </c>
       <c r="J65" s="3">
-        <v>13</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>172</v>
+        <v>125</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>439</v>
       </c>
       <c r="L65" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M65" s="3">
-        <v>11</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>407</v>
+        <v>128</v>
+      </c>
+      <c r="N65" s="10" t="s">
+        <v>440</v>
       </c>
       <c r="O65" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P65" s="3">
-        <v>31</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>420</v>
+        <v>248</v>
+      </c>
+      <c r="Q65" s="10" t="s">
+        <v>441</v>
       </c>
       <c r="R65" s="3">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="S65" s="3">
-        <v>107</v>
-      </c>
-      <c r="T65" s="1" t="s">
-        <v>421</v>
+        <v>696</v>
+      </c>
+      <c r="T65" s="10" t="s">
+        <v>442</v>
       </c>
       <c r="U65" s="3">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="V65" s="3">
-        <v>107</v>
-      </c>
-      <c r="W65" s="1" t="s">
-        <v>422</v>
+        <v>696</v>
+      </c>
+      <c r="W65" s="10" t="s">
+        <v>443</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
       <c r="A66" s="8">
-        <v>65</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>423</v>
+        <v>74</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>444</v>
       </c>
       <c r="C66" s="3">
         <v>2</v>
       </c>
       <c r="D66" s="3">
-        <v>381</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>424</v>
+        <v>6</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="F66" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G66" s="3">
-        <v>304</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>425</v>
+        <v>1</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="I66" s="3">
         <v>3</v>
       </c>
       <c r="J66" s="3">
-        <v>505</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>426</v>
+        <v>2</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="L66" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M66" s="3">
-        <v>621</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>427</v>
+        <v>4</v>
+      </c>
+      <c r="N66" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="O66" s="3">
         <v>3</v>
       </c>
       <c r="P66" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>428</v>
+        <v>8</v>
+      </c>
+      <c r="Q66" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="R66" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S66" s="3">
-        <v>4568</v>
-      </c>
-      <c r="T66" s="1" t="s">
-        <v>429</v>
+        <v>41</v>
+      </c>
+      <c r="T66" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="U66" s="3">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="V66" s="3">
-        <v>4568</v>
-      </c>
-      <c r="W66" s="1" t="s">
-        <v>430</v>
+        <v>41</v>
+      </c>
+      <c r="W66" s="10" t="s">
+        <v>190</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
       <c r="A67" s="8">
-        <v>66</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>431</v>
+        <v>75</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>445</v>
       </c>
       <c r="C67" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" s="3">
-        <v>43</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>308</v>
+        <v>35</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>446</v>
       </c>
       <c r="F67" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G67" s="3">
-        <v>36</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="I67" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J67" s="3">
-        <v>67</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>432</v>
+        <v>35</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="L67" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M67" s="3">
-        <v>66</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>233</v>
+        <v>37</v>
+      </c>
+      <c r="N67" s="10" t="s">
+        <v>447</v>
       </c>
       <c r="O67" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P67" s="3">
-        <v>140</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>433</v>
+        <v>82</v>
+      </c>
+      <c r="Q67" s="10" t="s">
+        <v>272</v>
       </c>
       <c r="R67" s="3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="S67" s="3">
-        <v>438</v>
-      </c>
-      <c r="T67" s="1" t="s">
-        <v>434</v>
+        <v>411</v>
+      </c>
+      <c r="T67" s="10" t="s">
+        <v>448</v>
       </c>
       <c r="U67" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="V67" s="3">
-        <v>438</v>
-      </c>
-      <c r="W67" s="1" t="s">
-        <v>435</v>
+        <v>411</v>
+      </c>
+      <c r="W67" s="10" t="s">
+        <v>449</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
       <c r="A68" s="8">
-        <v>67</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>436</v>
+        <v>76</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="C68" s="3">
         <v>2</v>
       </c>
       <c r="D68" s="3">
-        <v>4</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>104</v>
+        <v>5</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="F68" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G68" s="3">
-        <v>4</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>151</v>
+        <v>14</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="I68" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J68" s="3">
-        <v>5</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="L68" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M68" s="3">
-        <v>4</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>151</v>
+        <v>25</v>
+      </c>
+      <c r="N68" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="O68" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P68" s="3">
-        <v>7</v>
-      </c>
-      <c r="Q68" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
+      </c>
+      <c r="Q68" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="R68" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="S68" s="3">
-        <v>29</v>
-      </c>
-      <c r="T68" s="1" t="s">
-        <v>437</v>
+        <v>90</v>
+      </c>
+      <c r="T68" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="U68" s="3">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="V68" s="3">
-        <v>29</v>
-      </c>
-      <c r="W68" s="1" t="s">
-        <v>438</v>
+        <v>90</v>
+      </c>
+      <c r="W68" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
       <c r="A69" s="8">
-        <v>68</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>439</v>
+        <v>77</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>450</v>
       </c>
       <c r="C69" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" s="3">
-        <v>1</v>
-      </c>
-      <c r="E69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F69" s="3">
+        <v>6</v>
+      </c>
+      <c r="G69" s="3">
+        <v>5</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="I69" s="3">
+        <v>4</v>
+      </c>
+      <c r="J69" s="3">
+        <v>6</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L69" s="3">
+        <v>6</v>
+      </c>
+      <c r="M69" s="3">
+        <v>6</v>
+      </c>
+      <c r="N69" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F69" s="3">
-        <v>4</v>
-      </c>
-      <c r="G69" s="3">
-        <v>1</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I69" s="3">
-        <v>3</v>
-      </c>
-      <c r="J69" s="3">
-        <v>2</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L69" s="3">
-        <v>4</v>
-      </c>
-      <c r="M69" s="3">
-        <v>3</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="O69" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P69" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>104</v>
+        <v>14</v>
+      </c>
+      <c r="Q69" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="R69" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="S69" s="3">
-        <v>25</v>
-      </c>
-      <c r="T69" s="1" t="s">
-        <v>152</v>
+        <v>48</v>
+      </c>
+      <c r="T69" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="U69" s="3">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="V69" s="3">
-        <v>25</v>
-      </c>
-      <c r="W69" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
-      <c r="A70" s="8">
-        <v>69</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C70" s="3">
-        <v>1</v>
-      </c>
-      <c r="D70" s="3">
-        <v>4</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F70" s="3">
-        <v>3</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I70" s="3">
-        <v>1</v>
-      </c>
-      <c r="J70" s="3">
-        <v>4</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L70" s="3">
-        <v>3</v>
-      </c>
-      <c r="M70" s="3">
-        <v>11</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="O70" s="3">
-        <v>1</v>
-      </c>
-      <c r="P70" s="3">
-        <v>16</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="R70" s="3">
-        <v>7</v>
-      </c>
-      <c r="S70" s="3">
-        <v>43</v>
-      </c>
-      <c r="T70" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="U70" s="3">
-        <v>16</v>
-      </c>
-      <c r="V70" s="3">
-        <v>43</v>
-      </c>
-      <c r="W70" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
-      <c r="A71" s="8">
-        <v>70</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C71" s="3">
-        <v>2</v>
-      </c>
-      <c r="D71" s="3">
-        <v>32</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F71" s="3">
-        <v>5</v>
-      </c>
-      <c r="G71" s="3">
-        <v>34</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="I71" s="3">
-        <v>3</v>
-      </c>
-      <c r="J71" s="3">
-        <v>55</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="L71" s="3">
-        <v>5</v>
-      </c>
-      <c r="M71" s="3">
-        <v>63</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="O71" s="3">
-        <v>3</v>
-      </c>
-      <c r="P71" s="3">
-        <v>113</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="R71" s="3">
-        <v>14</v>
-      </c>
-      <c r="S71" s="3">
-        <v>335</v>
-      </c>
-      <c r="T71" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="U71" s="3">
-        <v>32</v>
-      </c>
-      <c r="V71" s="3">
-        <v>335</v>
-      </c>
-      <c r="W71" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
-      <c r="A72" s="8">
-        <v>71</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C72" s="3">
-        <v>2</v>
-      </c>
-      <c r="D72" s="3">
-        <v>41</v>
-      </c>
-      <c r="E72" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W69" s="10" t="s">
         <v>451</v>
-      </c>
-      <c r="F72" s="3">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>44</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="I72" s="3">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3">
-        <v>72</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="L72" s="3">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3">
-        <v>88</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="O72" s="3">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3">
-        <v>153</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="R72" s="3">
-        <v>13</v>
-      </c>
-      <c r="S72" s="3">
-        <v>415</v>
-      </c>
-      <c r="T72" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="U72" s="3">
-        <v>30</v>
-      </c>
-      <c r="V72" s="3">
-        <v>415</v>
-      </c>
-      <c r="W72" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
-      <c r="A73" s="8">
-        <v>72</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C73" s="3">
-        <v>4</v>
-      </c>
-      <c r="D73" s="3">
-        <v>19</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F73" s="3">
-        <v>11</v>
-      </c>
-      <c r="G73" s="3">
-        <v>27</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="I73" s="3">
-        <v>8</v>
-      </c>
-      <c r="J73" s="3">
-        <v>43</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="L73" s="3">
-        <v>11</v>
-      </c>
-      <c r="M73" s="3">
-        <v>45</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="O73" s="3">
-        <v>8</v>
-      </c>
-      <c r="P73" s="3">
-        <v>76</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R73" s="3">
-        <v>34</v>
-      </c>
-      <c r="S73" s="3">
-        <v>174</v>
-      </c>
-      <c r="T73" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="U73" s="3">
-        <v>76</v>
-      </c>
-      <c r="V73" s="3">
-        <v>174</v>
-      </c>
-      <c r="W73" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
-      <c r="A74" s="8">
-        <v>73</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C74" s="3">
-        <v>3</v>
-      </c>
-      <c r="D74" s="3">
-        <v>60</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="F74" s="3">
-        <v>8</v>
-      </c>
-      <c r="G74" s="3">
-        <v>76</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I74" s="3">
-        <v>5</v>
-      </c>
-      <c r="J74" s="3">
-        <v>125</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="L74" s="3">
-        <v>7</v>
-      </c>
-      <c r="M74" s="3">
-        <v>128</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="O74" s="3">
-        <v>5</v>
-      </c>
-      <c r="P74" s="3">
-        <v>248</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="R74" s="3">
-        <v>22</v>
-      </c>
-      <c r="S74" s="3">
-        <v>696</v>
-      </c>
-      <c r="T74" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="U74" s="3">
-        <v>50</v>
-      </c>
-      <c r="V74" s="3">
-        <v>696</v>
-      </c>
-      <c r="W74" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18">
-      <c r="A75" s="8">
-        <v>74</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C75" s="3">
-        <v>2</v>
-      </c>
-      <c r="D75" s="3">
-        <v>6</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F75" s="3">
-        <v>5</v>
-      </c>
-      <c r="G75" s="3">
-        <v>1</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I75" s="3">
-        <v>3</v>
-      </c>
-      <c r="J75" s="3">
-        <v>2</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L75" s="3">
-        <v>5</v>
-      </c>
-      <c r="M75" s="3">
-        <v>4</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="O75" s="3">
-        <v>3</v>
-      </c>
-      <c r="P75" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q75" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="R75" s="3">
-        <v>14</v>
-      </c>
-      <c r="S75" s="3">
-        <v>41</v>
-      </c>
-      <c r="T75" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U75" s="3">
-        <v>32</v>
-      </c>
-      <c r="V75" s="3">
-        <v>41</v>
-      </c>
-      <c r="W75" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18">
-      <c r="A76" s="8">
-        <v>75</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C76" s="3">
-        <v>3</v>
-      </c>
-      <c r="D76" s="3">
-        <v>35</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F76" s="3">
-        <v>8</v>
-      </c>
-      <c r="G76" s="3">
-        <v>20</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I76" s="3">
-        <v>5</v>
-      </c>
-      <c r="J76" s="3">
-        <v>35</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L76" s="3">
-        <v>7</v>
-      </c>
-      <c r="M76" s="3">
-        <v>37</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O76" s="3">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
-        <v>82</v>
-      </c>
-      <c r="Q76" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="R76" s="3">
-        <v>22</v>
-      </c>
-      <c r="S76" s="3">
-        <v>411</v>
-      </c>
-      <c r="T76" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="U76" s="3">
-        <v>50</v>
-      </c>
-      <c r="V76" s="3">
-        <v>411</v>
-      </c>
-      <c r="W76" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18">
-      <c r="A77" s="8">
-        <v>76</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C77" s="3">
-        <v>2</v>
-      </c>
-      <c r="D77" s="3">
-        <v>5</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F77" s="3">
-        <v>6</v>
-      </c>
-      <c r="G77" s="3">
-        <v>14</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I77" s="3">
-        <v>4</v>
-      </c>
-      <c r="J77" s="3">
-        <v>23</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L77" s="3">
-        <v>6</v>
-      </c>
-      <c r="M77" s="3">
-        <v>25</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="O77" s="3">
-        <v>4</v>
-      </c>
-      <c r="P77" s="3">
-        <v>41</v>
-      </c>
-      <c r="Q77" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="R77" s="3">
-        <v>18</v>
-      </c>
-      <c r="S77" s="3">
-        <v>90</v>
-      </c>
-      <c r="T77" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U77" s="3">
-        <v>40</v>
-      </c>
-      <c r="V77" s="3">
-        <v>90</v>
-      </c>
-      <c r="W77" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18">
-      <c r="A78" s="8">
-        <v>77</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C78" s="3">
-        <v>2</v>
-      </c>
-      <c r="D78" s="3">
-        <v>11</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F78" s="3">
-        <v>6</v>
-      </c>
-      <c r="G78" s="3">
-        <v>5</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="I78" s="3">
-        <v>4</v>
-      </c>
-      <c r="J78" s="3">
-        <v>6</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L78" s="3">
-        <v>6</v>
-      </c>
-      <c r="M78" s="3">
-        <v>6</v>
-      </c>
-      <c r="N78" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O78" s="3">
-        <v>4</v>
-      </c>
-      <c r="P78" s="3">
-        <v>14</v>
-      </c>
-      <c r="Q78" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="R78" s="3">
-        <v>18</v>
-      </c>
-      <c r="S78" s="3">
-        <v>48</v>
-      </c>
-      <c r="T78" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="U78" s="3">
-        <v>40</v>
-      </c>
-      <c r="V78" s="3">
-        <v>48</v>
-      </c>
-      <c r="W78" s="1" t="s">
-        <v>474</v>
       </c>
     </row>
   </sheetData>
